--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/农村居民消费价格分类指数(上年同月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/农村居民消费价格分类指数(上年同月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,113 +483,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="D2" t="n">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="E2" t="n">
-        <v>101.1</v>
+        <v>96.5</v>
       </c>
       <c r="F2" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="G2" t="n">
-        <v>102.8</v>
+        <v>101.7</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>99.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>96.2</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="D3" t="n">
-        <v>101.3</v>
+        <v>100.4</v>
       </c>
       <c r="E3" t="n">
-        <v>100.8</v>
+        <v>96.5</v>
       </c>
       <c r="F3" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>103.6</v>
+        <v>101.8</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>99.8</v>
+        <v>97.5</v>
       </c>
       <c r="J3" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="C4" t="n">
-        <v>101.1</v>
+        <v>99.5</v>
       </c>
       <c r="D4" t="n">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="E4" t="n">
-        <v>101.1</v>
+        <v>96.3</v>
       </c>
       <c r="F4" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>103.3</v>
+        <v>102.4</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>99.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>99.3</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="E5" t="n">
         <v>96.5</v>
@@ -598,456 +598,456 @@
         <v>97.7</v>
       </c>
       <c r="G5" t="n">
-        <v>101.7</v>
+        <v>102.8</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="J5" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>93.7</v>
       </c>
       <c r="C6" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D6" t="n">
         <v>100.2</v>
       </c>
-      <c r="D6" t="n">
-        <v>100.4</v>
-      </c>
       <c r="E6" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="F6" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G6" t="n">
-        <v>101.8</v>
+        <v>103.7</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="J6" t="n">
-        <v>98.8</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="D7" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="E7" t="n">
-        <v>96.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G7" t="n">
-        <v>102.4</v>
+        <v>103.8</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J7" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>100.1</v>
       </c>
       <c r="E8" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="G8" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>96.40000000000001</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="C9" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D9" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="E9" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="G9" t="n">
-        <v>103.7</v>
+        <v>102.1</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="J9" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="E10" t="n">
-        <v>96.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="F10" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="G10" t="n">
-        <v>103.8</v>
+        <v>102.3</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>98.5</v>
+        <v>99.3</v>
       </c>
       <c r="J10" t="n">
-        <v>97.8</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="C11" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D11" t="n">
-        <v>100.1</v>
+        <v>101.2</v>
       </c>
       <c r="E11" t="n">
-        <v>96.90000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="F11" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>97.5</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="D12" t="n">
-        <v>100.5</v>
+        <v>101.3</v>
       </c>
       <c r="E12" t="n">
-        <v>96.59999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="F12" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="G12" t="n">
-        <v>102.1</v>
+        <v>103.6</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="J12" t="n">
-        <v>97.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>99.5</v>
+        <v>101.1</v>
       </c>
       <c r="D13" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="E13" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="F13" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3</v>
+        <v>103.3</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="J13" t="n">
-        <v>96.5</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.09999999999999</v>
+        <v>101.0456</v>
       </c>
       <c r="C14" t="n">
-        <v>100.5</v>
+        <v>101.0023</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7</v>
+        <v>101.1883</v>
       </c>
       <c r="E14" t="n">
-        <v>103.4</v>
+        <v>106.2146</v>
       </c>
       <c r="F14" t="n">
-        <v>98.3</v>
+        <v>98.642</v>
       </c>
       <c r="G14" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1</v>
+        <v>99.34569999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>98.7</v>
+        <v>99.73699999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>100.5</v>
+        <v>99.5479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C15" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D15" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="E15" t="n">
-        <v>103.4</v>
+        <v>108.4</v>
       </c>
       <c r="F15" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="H15" t="n">
-        <v>100.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>99.09999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="C16" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="D16" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="E16" t="n">
-        <v>103.4</v>
+        <v>108.2</v>
       </c>
       <c r="F16" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2</v>
+        <v>99.3</v>
       </c>
       <c r="I16" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="J16" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.0456</v>
+        <v>98.8</v>
       </c>
       <c r="C17" t="n">
-        <v>101.0023</v>
+        <v>101.4</v>
       </c>
       <c r="D17" t="n">
-        <v>101.1883</v>
+        <v>101.3</v>
       </c>
       <c r="E17" t="n">
-        <v>106.2146</v>
+        <v>108.2</v>
       </c>
       <c r="F17" t="n">
-        <v>98.642</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="H17" t="n">
-        <v>99.34569999999999</v>
+        <v>99.5</v>
       </c>
       <c r="I17" t="n">
-        <v>99.73699999999999</v>
+        <v>98.8</v>
       </c>
       <c r="J17" t="n">
-        <v>99.5479</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
-        <v>100.3</v>
+        <v>101.4</v>
       </c>
       <c r="D18" t="n">
         <v>101.2</v>
       </c>
       <c r="E18" t="n">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="F18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G18" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>99</v>
+      </c>
+      <c r="J18" t="n">
         <v>100.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>97.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="D19" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="E19" t="n">
         <v>108.2</v>
@@ -1056,5932 +1056,5932 @@
         <v>98.40000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="H19" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>99.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="D20" t="n">
         <v>101.3</v>
       </c>
       <c r="E20" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="G20" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="H20" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="C21" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="D21" t="n">
         <v>101.2</v>
       </c>
       <c r="E21" t="n">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="F21" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="H21" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="J21" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C22" t="n">
-        <v>101.3</v>
+        <v>100.1</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="E22" t="n">
-        <v>108.2</v>
+        <v>103.6</v>
       </c>
       <c r="F22" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>100.4</v>
+        <v>98.2</v>
       </c>
       <c r="H22" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>101.3</v>
+        <v>100.5</v>
       </c>
       <c r="D23" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="E23" t="n">
-        <v>108</v>
+        <v>103.4</v>
       </c>
       <c r="F23" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="G23" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="H23" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I23" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J23" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="C24" t="n">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
       <c r="D24" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="E24" t="n">
-        <v>107.9</v>
+        <v>103.4</v>
       </c>
       <c r="F24" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="G24" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="H24" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="I24" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="C25" t="n">
         <v>100.1</v>
       </c>
       <c r="D25" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="E25" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="F25" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="G25" t="n">
-        <v>98.2</v>
+        <v>100.7</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="I25" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J25" t="n">
-        <v>100.3</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.3</v>
+        <v>95.3</v>
       </c>
       <c r="C26" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="E26" t="n">
-        <v>101.2</v>
+        <v>103.4</v>
       </c>
       <c r="F26" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="G26" t="n">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="H26" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="I26" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J26" t="n">
         <v>98.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="C27" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="D27" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="E27" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="F27" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="H27" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="I27" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D28" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>100.3</v>
       </c>
-      <c r="E28" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="I28" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>100.7</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.3</v>
+        <v>98.5</v>
       </c>
       <c r="C29" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D29" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>103.4</v>
+        <v>101</v>
       </c>
       <c r="F29" t="n">
         <v>98</v>
       </c>
       <c r="G29" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="H29" t="n">
         <v>100.2</v>
       </c>
       <c r="I29" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.7</v>
+        <v>98.3</v>
       </c>
       <c r="C30" t="n">
-        <v>100.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="E30" t="n">
         <v>101.1</v>
       </c>
       <c r="F30" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="G30" t="n">
-        <v>101</v>
+        <v>100.4</v>
       </c>
       <c r="H30" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="I30" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J30" t="n">
-        <v>100.3</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="D31" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
         <v>100.9</v>
       </c>
       <c r="F31" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="J31" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="D32" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H32" t="n">
         <v>100</v>
       </c>
-      <c r="E32" t="n">
-        <v>101</v>
-      </c>
-      <c r="F32" t="n">
-        <v>98</v>
-      </c>
-      <c r="G32" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I32" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="J32" t="n">
         <v>98.59999999999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>98.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="E33" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="F33" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="H33" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C34" t="n">
         <v>99.5</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="F34" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="J34" t="n">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="C35" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="E35" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="F35" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G35" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="H35" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I35" t="n">
         <v>98.2</v>
       </c>
       <c r="J35" t="n">
-        <v>98.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C36" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="G36" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="D36" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="F36" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>99.7</v>
-      </c>
       <c r="H36" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="J36" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="E37" t="n">
         <v>101.2</v>
       </c>
       <c r="F37" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G37" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.59999999999999</v>
+        <v>99.41</v>
       </c>
       <c r="C38" t="n">
-        <v>102.4316</v>
+        <v>100.31</v>
       </c>
       <c r="D38" t="n">
-        <v>102.7</v>
+        <v>100.39</v>
       </c>
       <c r="E38" t="n">
-        <v>102.5</v>
+        <v>101.04</v>
       </c>
       <c r="F38" t="n">
-        <v>98.59999999999999</v>
+        <v>97.84</v>
       </c>
       <c r="G38" t="n">
-        <v>102.1</v>
+        <v>99.58</v>
       </c>
       <c r="H38" t="n">
-        <v>100.1</v>
+        <v>99.66</v>
       </c>
       <c r="I38" t="n">
-        <v>98.90000000000001</v>
+        <v>98.25</v>
       </c>
       <c r="J38" t="n">
-        <v>105.5</v>
+        <v>101.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.7323</v>
+        <v>98.0193</v>
       </c>
       <c r="C39" t="n">
-        <v>103.8666</v>
+        <v>100.2931</v>
       </c>
       <c r="D39" t="n">
-        <v>102.8428</v>
+        <v>100.5686</v>
       </c>
       <c r="E39" t="n">
-        <v>102.49</v>
+        <v>102.8419</v>
       </c>
       <c r="F39" t="n">
-        <v>98.764</v>
+        <v>97.8449</v>
       </c>
       <c r="G39" t="n">
-        <v>103.77</v>
+        <v>99.47</v>
       </c>
       <c r="H39" t="n">
-        <v>100.4514</v>
+        <v>99.6108</v>
       </c>
       <c r="I39" t="n">
-        <v>98.8622</v>
+        <v>97.9414</v>
       </c>
       <c r="J39" t="n">
-        <v>109.1477</v>
+        <v>101.1062</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.8646</v>
+        <v>98.2</v>
       </c>
       <c r="C40" t="n">
-        <v>104.1008</v>
+        <v>100.7559</v>
       </c>
       <c r="D40" t="n">
-        <v>102.8386</v>
+        <v>100.8</v>
       </c>
       <c r="E40" t="n">
-        <v>102.5225</v>
+        <v>103.2</v>
       </c>
       <c r="F40" t="n">
-        <v>98.88760000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>104.24</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>100.693</v>
+        <v>99.5</v>
       </c>
       <c r="I40" t="n">
-        <v>98.66079999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5697</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.41</v>
+        <v>98.5043</v>
       </c>
       <c r="C41" t="n">
-        <v>100.31</v>
+        <v>101.0625</v>
       </c>
       <c r="D41" t="n">
-        <v>100.39</v>
+        <v>102.5649</v>
       </c>
       <c r="E41" t="n">
-        <v>101.04</v>
+        <v>103.1773</v>
       </c>
       <c r="F41" t="n">
-        <v>97.84</v>
+        <v>98.0501</v>
       </c>
       <c r="G41" t="n">
-        <v>99.58</v>
+        <v>100.06</v>
       </c>
       <c r="H41" t="n">
-        <v>99.66</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>98.25</v>
+        <v>98.4023</v>
       </c>
       <c r="J41" t="n">
-        <v>101.66</v>
+        <v>102.2238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.0193</v>
+        <v>98.2444</v>
       </c>
       <c r="C42" t="n">
-        <v>100.2931</v>
+        <v>100.9269</v>
       </c>
       <c r="D42" t="n">
-        <v>100.5686</v>
+        <v>103.5777</v>
       </c>
       <c r="E42" t="n">
-        <v>102.8419</v>
+        <v>103.1363</v>
       </c>
       <c r="F42" t="n">
-        <v>97.8449</v>
+        <v>98.0881</v>
       </c>
       <c r="G42" t="n">
-        <v>99.47</v>
+        <v>100.04</v>
       </c>
       <c r="H42" t="n">
-        <v>99.6108</v>
+        <v>99.4854</v>
       </c>
       <c r="I42" t="n">
-        <v>97.9414</v>
+        <v>98.37220000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1062</v>
+        <v>101.5572</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>100.7559</v>
+        <v>100.9</v>
       </c>
       <c r="D43" t="n">
-        <v>100.8</v>
+        <v>103.7</v>
       </c>
       <c r="E43" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="F43" t="n">
-        <v>97.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="G43" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H43" t="n">
         <v>100</v>
       </c>
-      <c r="H43" t="n">
-        <v>99.5</v>
-      </c>
       <c r="I43" t="n">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="J43" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.5043</v>
+        <v>98.5831</v>
       </c>
       <c r="C44" t="n">
-        <v>101.0625</v>
+        <v>101.0843</v>
       </c>
       <c r="D44" t="n">
-        <v>102.5649</v>
+        <v>103.4199</v>
       </c>
       <c r="E44" t="n">
-        <v>103.1773</v>
+        <v>103.266</v>
       </c>
       <c r="F44" t="n">
-        <v>98.0501</v>
+        <v>98.5784</v>
       </c>
       <c r="G44" t="n">
-        <v>100.06</v>
+        <v>100.64</v>
       </c>
       <c r="H44" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8912</v>
       </c>
       <c r="I44" t="n">
-        <v>98.4023</v>
+        <v>98.9256</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2238</v>
+        <v>101.3391</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.2444</v>
+        <v>98.8</v>
       </c>
       <c r="C45" t="n">
-        <v>100.9269</v>
+        <v>101.4444</v>
       </c>
       <c r="D45" t="n">
-        <v>103.5777</v>
+        <v>103.2</v>
       </c>
       <c r="E45" t="n">
-        <v>103.1363</v>
+        <v>103.3</v>
       </c>
       <c r="F45" t="n">
-        <v>98.0881</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>100.04</v>
+        <v>100.8</v>
       </c>
       <c r="H45" t="n">
-        <v>99.4854</v>
+        <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>98.37220000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>101.5572</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7196</v>
       </c>
       <c r="C46" t="n">
-        <v>100.9</v>
+        <v>101.5507</v>
       </c>
       <c r="D46" t="n">
-        <v>103.7</v>
+        <v>103.1722</v>
       </c>
       <c r="E46" t="n">
-        <v>103.3</v>
+        <v>102.3721</v>
       </c>
       <c r="F46" t="n">
-        <v>98.5</v>
+        <v>98.6058</v>
       </c>
       <c r="G46" t="n">
-        <v>100.3</v>
+        <v>100.81</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>100.0329</v>
       </c>
       <c r="I46" t="n">
-        <v>98.8</v>
+        <v>98.72799999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>101</v>
+        <v>103.2135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.5831</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>101.0843</v>
+        <v>102.4316</v>
       </c>
       <c r="D47" t="n">
-        <v>103.4199</v>
+        <v>102.7</v>
       </c>
       <c r="E47" t="n">
-        <v>103.266</v>
+        <v>102.5</v>
       </c>
       <c r="F47" t="n">
-        <v>98.5784</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>100.64</v>
+        <v>102.1</v>
       </c>
       <c r="H47" t="n">
-        <v>99.8912</v>
+        <v>100.1</v>
       </c>
       <c r="I47" t="n">
-        <v>98.9256</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>101.3391</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.8</v>
+        <v>98.7323</v>
       </c>
       <c r="C48" t="n">
-        <v>101.4444</v>
+        <v>103.8666</v>
       </c>
       <c r="D48" t="n">
-        <v>103.2</v>
+        <v>102.8428</v>
       </c>
       <c r="E48" t="n">
-        <v>103.3</v>
+        <v>102.49</v>
       </c>
       <c r="F48" t="n">
-        <v>98.59999999999999</v>
+        <v>98.764</v>
       </c>
       <c r="G48" t="n">
-        <v>100.8</v>
+        <v>103.77</v>
       </c>
       <c r="H48" t="n">
-        <v>100</v>
+        <v>100.4514</v>
       </c>
       <c r="I48" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8622</v>
       </c>
       <c r="J48" t="n">
-        <v>102.4</v>
+        <v>109.1477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>98.7196</v>
+        <v>98.8646</v>
       </c>
       <c r="C49" t="n">
-        <v>101.5507</v>
+        <v>104.1008</v>
       </c>
       <c r="D49" t="n">
-        <v>103.1722</v>
+        <v>102.8386</v>
       </c>
       <c r="E49" t="n">
-        <v>102.3721</v>
+        <v>102.5225</v>
       </c>
       <c r="F49" t="n">
-        <v>98.6058</v>
+        <v>98.88760000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>100.81</v>
+        <v>104.24</v>
       </c>
       <c r="H49" t="n">
-        <v>100.0329</v>
+        <v>100.693</v>
       </c>
       <c r="I49" t="n">
-        <v>98.72799999999999</v>
+        <v>98.66079999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>103.2135</v>
+        <v>109.5697</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.976</v>
+        <v>100.6224</v>
       </c>
       <c r="C50" t="n">
-        <v>105.3638</v>
+        <v>104.3562</v>
       </c>
       <c r="D50" t="n">
-        <v>99.73090000000001</v>
+        <v>102.8204</v>
       </c>
       <c r="E50" t="n">
-        <v>103.6147</v>
+        <v>102.7595</v>
       </c>
       <c r="F50" t="n">
-        <v>99.9876</v>
+        <v>99.1772</v>
       </c>
       <c r="G50" t="n">
-        <v>107.42</v>
+        <v>103.96</v>
       </c>
       <c r="H50" t="n">
-        <v>101.4148</v>
+        <v>100.9919</v>
       </c>
       <c r="I50" t="n">
-        <v>98.25360000000001</v>
+        <v>98.5849</v>
       </c>
       <c r="J50" t="n">
-        <v>111.6161</v>
+        <v>109.67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.9508</v>
+        <v>97.9928</v>
       </c>
       <c r="C51" t="n">
-        <v>103.6308</v>
+        <v>103.3057</v>
       </c>
       <c r="D51" t="n">
-        <v>99.702</v>
+        <v>102.6301</v>
       </c>
       <c r="E51" t="n">
-        <v>103.7888</v>
+        <v>101.0128</v>
       </c>
       <c r="F51" t="n">
-        <v>100.0111</v>
+        <v>99.35890000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>106</v>
+        <v>104.24</v>
       </c>
       <c r="H51" t="n">
-        <v>101.1718</v>
+        <v>100.7978</v>
       </c>
       <c r="I51" t="n">
-        <v>98.3322</v>
+        <v>98.3652</v>
       </c>
       <c r="J51" t="n">
-        <v>106.7671</v>
+        <v>107.7689</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.9987</v>
+        <v>99.3788</v>
       </c>
       <c r="C52" t="n">
-        <v>103.2654</v>
+        <v>104.2287</v>
       </c>
       <c r="D52" t="n">
-        <v>99.8342</v>
+        <v>102.4431</v>
       </c>
       <c r="E52" t="n">
-        <v>104.2422</v>
+        <v>100.8048</v>
       </c>
       <c r="F52" t="n">
-        <v>99.9349</v>
+        <v>99.536</v>
       </c>
       <c r="G52" t="n">
-        <v>105.43</v>
+        <v>104.43</v>
       </c>
       <c r="H52" t="n">
-        <v>100.8959</v>
+        <v>100.9053</v>
       </c>
       <c r="I52" t="n">
-        <v>98.5252</v>
+        <v>98.5574</v>
       </c>
       <c r="J52" t="n">
-        <v>105.6588</v>
+        <v>110.3242</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.6224</v>
+        <v>99.568</v>
       </c>
       <c r="C53" t="n">
-        <v>104.3562</v>
+        <v>104.8613</v>
       </c>
       <c r="D53" t="n">
-        <v>102.8204</v>
+        <v>100.6585</v>
       </c>
       <c r="E53" t="n">
-        <v>102.7595</v>
+        <v>101.0296</v>
       </c>
       <c r="F53" t="n">
-        <v>99.1772</v>
+        <v>99.5831</v>
       </c>
       <c r="G53" t="n">
-        <v>103.96</v>
+        <v>104.97</v>
       </c>
       <c r="H53" t="n">
-        <v>100.9919</v>
+        <v>101.0831</v>
       </c>
       <c r="I53" t="n">
-        <v>98.5849</v>
+        <v>98.5926</v>
       </c>
       <c r="J53" t="n">
-        <v>109.67</v>
+        <v>112.4642</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97.9928</v>
+        <v>99.8967</v>
       </c>
       <c r="C54" t="n">
-        <v>103.3057</v>
+        <v>105.1559</v>
       </c>
       <c r="D54" t="n">
-        <v>102.6301</v>
+        <v>99.4468</v>
       </c>
       <c r="E54" t="n">
-        <v>101.0128</v>
+        <v>101.1466</v>
       </c>
       <c r="F54" t="n">
-        <v>99.35890000000001</v>
+        <v>99.6216</v>
       </c>
       <c r="G54" t="n">
-        <v>104.24</v>
+        <v>105.67</v>
       </c>
       <c r="H54" t="n">
-        <v>100.7978</v>
+        <v>101.5997</v>
       </c>
       <c r="I54" t="n">
-        <v>98.3652</v>
+        <v>98.4188</v>
       </c>
       <c r="J54" t="n">
-        <v>107.7689</v>
+        <v>113.3855</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.3788</v>
+        <v>99.92440000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>104.2287</v>
+        <v>105.6054</v>
       </c>
       <c r="D55" t="n">
-        <v>102.4431</v>
+        <v>99.51179999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>100.8048</v>
+        <v>101.0407</v>
       </c>
       <c r="F55" t="n">
-        <v>99.536</v>
+        <v>99.6977</v>
       </c>
       <c r="G55" t="n">
-        <v>104.43</v>
+        <v>106.11</v>
       </c>
       <c r="H55" t="n">
-        <v>100.9053</v>
+        <v>101.7417</v>
       </c>
       <c r="I55" t="n">
-        <v>98.5574</v>
+        <v>98.3977</v>
       </c>
       <c r="J55" t="n">
-        <v>110.3242</v>
+        <v>114.8555</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.568</v>
+        <v>99.96680000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>104.8613</v>
+        <v>105.8814</v>
       </c>
       <c r="D56" t="n">
-        <v>100.6585</v>
+        <v>99.4864</v>
       </c>
       <c r="E56" t="n">
-        <v>101.0296</v>
+        <v>101.0677</v>
       </c>
       <c r="F56" t="n">
-        <v>99.5831</v>
+        <v>99.6876</v>
       </c>
       <c r="G56" t="n">
-        <v>104.97</v>
+        <v>106.31</v>
       </c>
       <c r="H56" t="n">
-        <v>101.0831</v>
+        <v>101.754</v>
       </c>
       <c r="I56" t="n">
-        <v>98.5926</v>
+        <v>98.3807</v>
       </c>
       <c r="J56" t="n">
-        <v>112.4642</v>
+        <v>115.7286</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.8967</v>
+        <v>99.9111</v>
       </c>
       <c r="C57" t="n">
-        <v>105.1559</v>
+        <v>106.1344</v>
       </c>
       <c r="D57" t="n">
-        <v>99.4468</v>
+        <v>99.7685</v>
       </c>
       <c r="E57" t="n">
-        <v>101.1466</v>
+        <v>101.1491</v>
       </c>
       <c r="F57" t="n">
-        <v>99.6216</v>
+        <v>99.77079999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>105.67</v>
+        <v>107.37</v>
       </c>
       <c r="H57" t="n">
-        <v>101.5997</v>
+        <v>101.6674</v>
       </c>
       <c r="I57" t="n">
-        <v>98.4188</v>
+        <v>98.44450000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>113.3855</v>
+        <v>115.5527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.92440000000001</v>
+        <v>100.073</v>
       </c>
       <c r="C58" t="n">
-        <v>105.6054</v>
+        <v>106.4096</v>
       </c>
       <c r="D58" t="n">
-        <v>99.51179999999999</v>
+        <v>99.9691</v>
       </c>
       <c r="E58" t="n">
-        <v>101.0407</v>
+        <v>103.4348</v>
       </c>
       <c r="F58" t="n">
-        <v>99.6977</v>
+        <v>99.9354</v>
       </c>
       <c r="G58" t="n">
-        <v>106.11</v>
+        <v>107.68</v>
       </c>
       <c r="H58" t="n">
-        <v>101.7417</v>
+        <v>101.6139</v>
       </c>
       <c r="I58" t="n">
-        <v>98.3977</v>
+        <v>98.467</v>
       </c>
       <c r="J58" t="n">
-        <v>114.8555</v>
+        <v>114.7955</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.96680000000001</v>
+        <v>99.976</v>
       </c>
       <c r="C59" t="n">
-        <v>105.8814</v>
+        <v>105.3638</v>
       </c>
       <c r="D59" t="n">
-        <v>99.4864</v>
+        <v>99.73090000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>101.0677</v>
+        <v>103.6147</v>
       </c>
       <c r="F59" t="n">
-        <v>99.6876</v>
+        <v>99.9876</v>
       </c>
       <c r="G59" t="n">
-        <v>106.31</v>
+        <v>107.42</v>
       </c>
       <c r="H59" t="n">
-        <v>101.754</v>
+        <v>101.4148</v>
       </c>
       <c r="I59" t="n">
-        <v>98.3807</v>
+        <v>98.25360000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>115.7286</v>
+        <v>111.6161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.9111</v>
+        <v>99.9508</v>
       </c>
       <c r="C60" t="n">
-        <v>106.1344</v>
+        <v>103.6308</v>
       </c>
       <c r="D60" t="n">
-        <v>99.7685</v>
+        <v>99.702</v>
       </c>
       <c r="E60" t="n">
-        <v>101.1491</v>
+        <v>103.7888</v>
       </c>
       <c r="F60" t="n">
-        <v>99.77079999999999</v>
+        <v>100.0111</v>
       </c>
       <c r="G60" t="n">
-        <v>107.37</v>
+        <v>106</v>
       </c>
       <c r="H60" t="n">
-        <v>101.6674</v>
+        <v>101.1718</v>
       </c>
       <c r="I60" t="n">
-        <v>98.44450000000001</v>
+        <v>98.3322</v>
       </c>
       <c r="J60" t="n">
-        <v>115.5527</v>
+        <v>106.7671</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.073</v>
+        <v>99.9987</v>
       </c>
       <c r="C61" t="n">
-        <v>106.4096</v>
+        <v>103.2654</v>
       </c>
       <c r="D61" t="n">
-        <v>99.9691</v>
+        <v>99.8342</v>
       </c>
       <c r="E61" t="n">
-        <v>103.4348</v>
+        <v>104.2422</v>
       </c>
       <c r="F61" t="n">
-        <v>99.9354</v>
+        <v>99.9349</v>
       </c>
       <c r="G61" t="n">
-        <v>107.68</v>
+        <v>105.43</v>
       </c>
       <c r="H61" t="n">
-        <v>101.6139</v>
+        <v>100.8959</v>
       </c>
       <c r="I61" t="n">
-        <v>98.467</v>
+        <v>98.5252</v>
       </c>
       <c r="J61" t="n">
-        <v>114.7955</v>
+        <v>105.6588</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.9376</v>
+        <v>97.80070000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>101.3075</v>
+        <v>102.7536</v>
       </c>
       <c r="D62" t="n">
-        <v>101.2229</v>
+        <v>99.7452</v>
       </c>
       <c r="E62" t="n">
-        <v>102.2979</v>
+        <v>104.2074</v>
       </c>
       <c r="F62" t="n">
-        <v>100.5219</v>
+        <v>99.8309</v>
       </c>
       <c r="G62" t="n">
-        <v>104.38</v>
+        <v>105.65</v>
       </c>
       <c r="H62" t="n">
-        <v>100.4929</v>
+        <v>100.6341</v>
       </c>
       <c r="I62" t="n">
-        <v>99.496</v>
+        <v>98.71850000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>100.3955</v>
+        <v>104.6649</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.9494</v>
+        <v>101.5033</v>
       </c>
       <c r="C63" t="n">
-        <v>101.3667</v>
+        <v>104.4948</v>
       </c>
       <c r="D63" t="n">
-        <v>101.2249</v>
+        <v>99.8165</v>
       </c>
       <c r="E63" t="n">
-        <v>102.0164</v>
+        <v>104.7227</v>
       </c>
       <c r="F63" t="n">
-        <v>100.5317</v>
+        <v>99.8614</v>
       </c>
       <c r="G63" t="n">
-        <v>104.68</v>
+        <v>105.61</v>
       </c>
       <c r="H63" t="n">
-        <v>100.5069</v>
+        <v>100.7849</v>
       </c>
       <c r="I63" t="n">
-        <v>99.4115</v>
+        <v>99.2499</v>
       </c>
       <c r="J63" t="n">
-        <v>100.4899</v>
+        <v>108.6251</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.8762</v>
+        <v>100.1186</v>
       </c>
       <c r="C64" t="n">
-        <v>101.5497</v>
+        <v>103.3668</v>
       </c>
       <c r="D64" t="n">
-        <v>101.405</v>
+        <v>99.90649999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>101.5216</v>
+        <v>104.794</v>
       </c>
       <c r="F64" t="n">
-        <v>100.6025</v>
+        <v>99.8955</v>
       </c>
       <c r="G64" t="n">
-        <v>104.88</v>
+        <v>105.72</v>
       </c>
       <c r="H64" t="n">
-        <v>100.608</v>
+        <v>100.9015</v>
       </c>
       <c r="I64" t="n">
-        <v>99.4049</v>
+        <v>98.6571</v>
       </c>
       <c r="J64" t="n">
-        <v>101.1135</v>
+        <v>105.6115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>97.80070000000001</v>
+        <v>99.8991</v>
       </c>
       <c r="C65" t="n">
-        <v>102.7536</v>
+        <v>102.3959</v>
       </c>
       <c r="D65" t="n">
-        <v>99.7452</v>
+        <v>99.8896</v>
       </c>
       <c r="E65" t="n">
-        <v>104.2074</v>
+        <v>104.6712</v>
       </c>
       <c r="F65" t="n">
-        <v>99.8309</v>
+        <v>99.9705</v>
       </c>
       <c r="G65" t="n">
-        <v>105.65</v>
+        <v>105.59</v>
       </c>
       <c r="H65" t="n">
-        <v>100.6341</v>
+        <v>100.7851</v>
       </c>
       <c r="I65" t="n">
-        <v>98.71850000000001</v>
+        <v>98.6074</v>
       </c>
       <c r="J65" t="n">
-        <v>104.6649</v>
+        <v>102.8981</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101.5033</v>
+        <v>99.8583</v>
       </c>
       <c r="C66" t="n">
-        <v>104.4948</v>
+        <v>102.35</v>
       </c>
       <c r="D66" t="n">
-        <v>99.8165</v>
+        <v>100.017</v>
       </c>
       <c r="E66" t="n">
-        <v>104.7227</v>
+        <v>104.6491</v>
       </c>
       <c r="F66" t="n">
-        <v>99.8614</v>
+        <v>100.1948</v>
       </c>
       <c r="G66" t="n">
-        <v>105.61</v>
+        <v>105.56</v>
       </c>
       <c r="H66" t="n">
-        <v>100.7849</v>
+        <v>100.4162</v>
       </c>
       <c r="I66" t="n">
-        <v>99.2499</v>
+        <v>98.73480000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>108.6251</v>
+        <v>102.741</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.1186</v>
+        <v>99.8584</v>
       </c>
       <c r="C67" t="n">
-        <v>103.3668</v>
+        <v>102.1841</v>
       </c>
       <c r="D67" t="n">
-        <v>99.90649999999999</v>
+        <v>100.0061</v>
       </c>
       <c r="E67" t="n">
-        <v>104.794</v>
+        <v>104.7418</v>
       </c>
       <c r="F67" t="n">
-        <v>99.8955</v>
+        <v>100.3868</v>
       </c>
       <c r="G67" t="n">
-        <v>105.72</v>
+        <v>105.55</v>
       </c>
       <c r="H67" t="n">
-        <v>100.9015</v>
+        <v>100.3124</v>
       </c>
       <c r="I67" t="n">
-        <v>98.6571</v>
+        <v>98.8759</v>
       </c>
       <c r="J67" t="n">
-        <v>105.6115</v>
+        <v>102.1169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.8991</v>
+        <v>100.2198</v>
       </c>
       <c r="C68" t="n">
-        <v>102.3959</v>
+        <v>102.1814</v>
       </c>
       <c r="D68" t="n">
-        <v>99.8896</v>
+        <v>100.7626</v>
       </c>
       <c r="E68" t="n">
-        <v>104.6712</v>
+        <v>104.7965</v>
       </c>
       <c r="F68" t="n">
-        <v>99.9705</v>
+        <v>100.4822</v>
       </c>
       <c r="G68" t="n">
-        <v>105.59</v>
+        <v>105.44</v>
       </c>
       <c r="H68" t="n">
-        <v>100.7851</v>
+        <v>100.4191</v>
       </c>
       <c r="I68" t="n">
-        <v>98.6074</v>
+        <v>98.9153</v>
       </c>
       <c r="J68" t="n">
-        <v>102.8981</v>
+        <v>101.7795</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.8583</v>
+        <v>100.4876</v>
       </c>
       <c r="C69" t="n">
-        <v>102.35</v>
+        <v>101.4611</v>
       </c>
       <c r="D69" t="n">
-        <v>100.017</v>
+        <v>100.6094</v>
       </c>
       <c r="E69" t="n">
-        <v>104.6491</v>
+        <v>104.7463</v>
       </c>
       <c r="F69" t="n">
-        <v>100.1948</v>
+        <v>100.5143</v>
       </c>
       <c r="G69" t="n">
-        <v>105.56</v>
+        <v>104.7</v>
       </c>
       <c r="H69" t="n">
-        <v>100.4162</v>
+        <v>100.2987</v>
       </c>
       <c r="I69" t="n">
-        <v>98.73480000000001</v>
+        <v>99.2017</v>
       </c>
       <c r="J69" t="n">
-        <v>102.741</v>
+        <v>100.0043</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.8584</v>
+        <v>100.6999</v>
       </c>
       <c r="C70" t="n">
-        <v>102.1841</v>
+        <v>101.0145</v>
       </c>
       <c r="D70" t="n">
-        <v>100.0061</v>
+        <v>100.9212</v>
       </c>
       <c r="E70" t="n">
-        <v>104.7418</v>
+        <v>102.5085</v>
       </c>
       <c r="F70" t="n">
-        <v>100.3868</v>
+        <v>100.4679</v>
       </c>
       <c r="G70" t="n">
-        <v>105.55</v>
+        <v>104.91</v>
       </c>
       <c r="H70" t="n">
-        <v>100.3124</v>
+        <v>100.353</v>
       </c>
       <c r="I70" t="n">
-        <v>98.8759</v>
+        <v>99.36839999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>102.1169</v>
+        <v>99.43559999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.2198</v>
+        <v>100.9376</v>
       </c>
       <c r="C71" t="n">
-        <v>102.1814</v>
+        <v>101.3075</v>
       </c>
       <c r="D71" t="n">
-        <v>100.7626</v>
+        <v>101.2229</v>
       </c>
       <c r="E71" t="n">
-        <v>104.7965</v>
+        <v>102.2979</v>
       </c>
       <c r="F71" t="n">
-        <v>100.4822</v>
+        <v>100.5219</v>
       </c>
       <c r="G71" t="n">
-        <v>105.44</v>
+        <v>104.38</v>
       </c>
       <c r="H71" t="n">
-        <v>100.4191</v>
+        <v>100.4929</v>
       </c>
       <c r="I71" t="n">
-        <v>98.9153</v>
+        <v>99.496</v>
       </c>
       <c r="J71" t="n">
-        <v>101.7795</v>
+        <v>100.3955</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.4876</v>
+        <v>100.9494</v>
       </c>
       <c r="C72" t="n">
-        <v>101.4611</v>
+        <v>101.3667</v>
       </c>
       <c r="D72" t="n">
-        <v>100.6094</v>
+        <v>101.2249</v>
       </c>
       <c r="E72" t="n">
-        <v>104.7463</v>
+        <v>102.0164</v>
       </c>
       <c r="F72" t="n">
-        <v>100.5143</v>
+        <v>100.5317</v>
       </c>
       <c r="G72" t="n">
-        <v>104.7</v>
+        <v>104.68</v>
       </c>
       <c r="H72" t="n">
-        <v>100.2987</v>
+        <v>100.5069</v>
       </c>
       <c r="I72" t="n">
-        <v>99.2017</v>
+        <v>99.4115</v>
       </c>
       <c r="J72" t="n">
-        <v>100.0043</v>
+        <v>100.4899</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.6999</v>
+        <v>100.8762</v>
       </c>
       <c r="C73" t="n">
-        <v>101.0145</v>
+        <v>101.5497</v>
       </c>
       <c r="D73" t="n">
-        <v>100.9212</v>
+        <v>101.405</v>
       </c>
       <c r="E73" t="n">
-        <v>102.5085</v>
+        <v>101.5216</v>
       </c>
       <c r="F73" t="n">
-        <v>100.4679</v>
+        <v>100.6025</v>
       </c>
       <c r="G73" t="n">
-        <v>104.91</v>
+        <v>104.88</v>
       </c>
       <c r="H73" t="n">
-        <v>100.353</v>
+        <v>100.608</v>
       </c>
       <c r="I73" t="n">
-        <v>99.36839999999999</v>
+        <v>99.4049</v>
       </c>
       <c r="J73" t="n">
-        <v>99.43559999999999</v>
+        <v>101.1135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>101.7113716</v>
+        <v>100.66334239</v>
       </c>
       <c r="C74" t="n">
-        <v>101.33489577</v>
+        <v>101.73851556</v>
       </c>
       <c r="D74" t="n">
-        <v>101.70974635</v>
+        <v>100.52351783</v>
       </c>
       <c r="E74" t="n">
-        <v>96.75632278</v>
+        <v>100.7058506</v>
       </c>
       <c r="F74" t="n">
-        <v>101.45316082</v>
+        <v>100.56128365</v>
       </c>
       <c r="G74" t="n">
-        <v>104.32096514</v>
+        <v>105.03</v>
       </c>
       <c r="H74" t="n">
-        <v>100.533024</v>
+        <v>100.04308661</v>
       </c>
       <c r="I74" t="n">
-        <v>99.90809882000001</v>
+        <v>99.01400649</v>
       </c>
       <c r="J74" t="n">
-        <v>102.23600065</v>
+        <v>102.61965466</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>102.07968633</v>
+        <v>99.90672969000001</v>
       </c>
       <c r="C75" t="n">
-        <v>102.0523549</v>
+        <v>100.84088761</v>
       </c>
       <c r="D75" t="n">
-        <v>101.73756114</v>
+        <v>100.75116031</v>
       </c>
       <c r="E75" t="n">
-        <v>96.72192218000001</v>
+        <v>99.47287054</v>
       </c>
       <c r="F75" t="n">
-        <v>101.66319006</v>
+        <v>100.52946232</v>
       </c>
       <c r="G75" t="n">
-        <v>103.99839834</v>
+        <v>105.04</v>
       </c>
       <c r="H75" t="n">
-        <v>100.62975399</v>
+        <v>100.05216084</v>
       </c>
       <c r="I75" t="n">
-        <v>100.29058115</v>
+        <v>98.74962343999999</v>
       </c>
       <c r="J75" t="n">
-        <v>104.38657461</v>
+        <v>100.61992633</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>102.30955358</v>
+        <v>100.44575264</v>
       </c>
       <c r="C76" t="n">
-        <v>103.13482121</v>
+        <v>100.71366076</v>
       </c>
       <c r="D76" t="n">
-        <v>101.59954906</v>
+        <v>101.00538867</v>
       </c>
       <c r="E76" t="n">
-        <v>96.71842146</v>
+        <v>99.26973047</v>
       </c>
       <c r="F76" t="n">
-        <v>101.96455123</v>
+        <v>100.48306428</v>
       </c>
       <c r="G76" t="n">
-        <v>104.43825472</v>
+        <v>104.51</v>
       </c>
       <c r="H76" t="n">
-        <v>101.22953888</v>
+        <v>99.98608814000001</v>
       </c>
       <c r="I76" t="n">
-        <v>100.58581769</v>
+        <v>99.10282494</v>
       </c>
       <c r="J76" t="n">
-        <v>107.29717997</v>
+        <v>100.22051228</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.66334239</v>
+        <v>100.65800061</v>
       </c>
       <c r="C77" t="n">
-        <v>101.73851556</v>
+        <v>101.13671812</v>
       </c>
       <c r="D77" t="n">
-        <v>100.52351783</v>
+        <v>101.39155076</v>
       </c>
       <c r="E77" t="n">
-        <v>100.7058506</v>
+        <v>99.36509778</v>
       </c>
       <c r="F77" t="n">
-        <v>100.56128365</v>
+        <v>100.65041447</v>
       </c>
       <c r="G77" t="n">
-        <v>105.03</v>
+        <v>104.34</v>
       </c>
       <c r="H77" t="n">
-        <v>100.04308661</v>
+        <v>100.08965636</v>
       </c>
       <c r="I77" t="n">
-        <v>99.01400649</v>
+        <v>99.26400615999999</v>
       </c>
       <c r="J77" t="n">
-        <v>102.61965466</v>
+        <v>101.28107325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>99.90672969000001</v>
+        <v>101.09845201</v>
       </c>
       <c r="C78" t="n">
-        <v>100.84088761</v>
+        <v>101.24070912</v>
       </c>
       <c r="D78" t="n">
-        <v>100.75116031</v>
+        <v>101.77923784</v>
       </c>
       <c r="E78" t="n">
-        <v>99.47287054</v>
+        <v>99.29133379</v>
       </c>
       <c r="F78" t="n">
-        <v>100.52946232</v>
+        <v>100.77459361</v>
       </c>
       <c r="G78" t="n">
-        <v>105.04</v>
+        <v>104.46</v>
       </c>
       <c r="H78" t="n">
-        <v>100.05216084</v>
+        <v>100.0785445</v>
       </c>
       <c r="I78" t="n">
-        <v>98.74962343999999</v>
+        <v>99.54613609</v>
       </c>
       <c r="J78" t="n">
-        <v>100.61992633</v>
+        <v>101.23386026</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.44575264</v>
+        <v>101.80699491</v>
       </c>
       <c r="C79" t="n">
-        <v>100.71366076</v>
+        <v>101.33320433</v>
       </c>
       <c r="D79" t="n">
-        <v>101.00538867</v>
+        <v>101.89082622</v>
       </c>
       <c r="E79" t="n">
-        <v>99.26973047</v>
+        <v>99.33251217999999</v>
       </c>
       <c r="F79" t="n">
-        <v>100.48306428</v>
+        <v>100.93391495</v>
       </c>
       <c r="G79" t="n">
-        <v>104.51</v>
+        <v>104.34329687</v>
       </c>
       <c r="H79" t="n">
-        <v>99.98608814000001</v>
+        <v>100.09768684</v>
       </c>
       <c r="I79" t="n">
-        <v>99.10282494</v>
+        <v>99.50546122</v>
       </c>
       <c r="J79" t="n">
-        <v>100.22051228</v>
+        <v>101.27807777</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.65800061</v>
+        <v>101.78256371</v>
       </c>
       <c r="C80" t="n">
-        <v>101.13671812</v>
+        <v>101.13174601</v>
       </c>
       <c r="D80" t="n">
-        <v>101.39155076</v>
+        <v>101.84893112</v>
       </c>
       <c r="E80" t="n">
-        <v>99.36509778</v>
+        <v>99.53267872000001</v>
       </c>
       <c r="F80" t="n">
-        <v>100.65041447</v>
+        <v>101.1027062</v>
       </c>
       <c r="G80" t="n">
-        <v>104.34</v>
+        <v>104.64787147</v>
       </c>
       <c r="H80" t="n">
-        <v>100.08965636</v>
+        <v>100.14403917</v>
       </c>
       <c r="I80" t="n">
-        <v>99.26400615999999</v>
+        <v>99.57072144999999</v>
       </c>
       <c r="J80" t="n">
-        <v>101.28107325</v>
+        <v>100.38068744</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>101.09845201</v>
+        <v>101.71321462</v>
       </c>
       <c r="C81" t="n">
-        <v>101.24070912</v>
+        <v>101.43639328</v>
       </c>
       <c r="D81" t="n">
-        <v>101.77923784</v>
+        <v>101.89642983</v>
       </c>
       <c r="E81" t="n">
-        <v>99.29133379</v>
+        <v>99.33096369</v>
       </c>
       <c r="F81" t="n">
-        <v>100.77459361</v>
+        <v>101.1497097</v>
       </c>
       <c r="G81" t="n">
-        <v>104.46</v>
+        <v>104.86163932</v>
       </c>
       <c r="H81" t="n">
-        <v>100.0785445</v>
+        <v>100.34312627</v>
       </c>
       <c r="I81" t="n">
-        <v>99.54613609</v>
+        <v>99.43074706</v>
       </c>
       <c r="J81" t="n">
-        <v>101.23386026</v>
+        <v>101.32170013</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>101.80699491</v>
+        <v>101.72909101</v>
       </c>
       <c r="C82" t="n">
-        <v>101.33320433</v>
+        <v>101.37071374</v>
       </c>
       <c r="D82" t="n">
-        <v>101.89082622</v>
+        <v>101.69333949</v>
       </c>
       <c r="E82" t="n">
-        <v>99.33251217999999</v>
+        <v>96.72241654</v>
       </c>
       <c r="F82" t="n">
-        <v>100.93391495</v>
+        <v>101.31138796</v>
       </c>
       <c r="G82" t="n">
-        <v>104.34329687</v>
+        <v>104.67457097</v>
       </c>
       <c r="H82" t="n">
-        <v>100.09768684</v>
+        <v>100.43936351</v>
       </c>
       <c r="I82" t="n">
-        <v>99.50546122</v>
+        <v>99.64967083000001</v>
       </c>
       <c r="J82" t="n">
-        <v>101.27807777</v>
+        <v>102.31242439</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>101.78256371</v>
+        <v>101.7113716</v>
       </c>
       <c r="C83" t="n">
-        <v>101.13174601</v>
+        <v>101.33489577</v>
       </c>
       <c r="D83" t="n">
-        <v>101.84893112</v>
+        <v>101.70974635</v>
       </c>
       <c r="E83" t="n">
-        <v>99.53267872000001</v>
+        <v>96.75632278</v>
       </c>
       <c r="F83" t="n">
-        <v>101.1027062</v>
+        <v>101.45316082</v>
       </c>
       <c r="G83" t="n">
-        <v>104.64787147</v>
+        <v>104.32096514</v>
       </c>
       <c r="H83" t="n">
-        <v>100.14403917</v>
+        <v>100.533024</v>
       </c>
       <c r="I83" t="n">
-        <v>99.57072144999999</v>
+        <v>99.90809882000001</v>
       </c>
       <c r="J83" t="n">
-        <v>100.38068744</v>
+        <v>102.23600065</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>101.71321462</v>
+        <v>102.07968633</v>
       </c>
       <c r="C84" t="n">
-        <v>101.43639328</v>
+        <v>102.0523549</v>
       </c>
       <c r="D84" t="n">
-        <v>101.89642983</v>
+        <v>101.73756114</v>
       </c>
       <c r="E84" t="n">
-        <v>99.33096369</v>
+        <v>96.72192218000001</v>
       </c>
       <c r="F84" t="n">
-        <v>101.1497097</v>
+        <v>101.66319006</v>
       </c>
       <c r="G84" t="n">
-        <v>104.86163932</v>
+        <v>103.99839834</v>
       </c>
       <c r="H84" t="n">
-        <v>100.34312627</v>
+        <v>100.62975399</v>
       </c>
       <c r="I84" t="n">
-        <v>99.43074706</v>
+        <v>100.29058115</v>
       </c>
       <c r="J84" t="n">
-        <v>101.32170013</v>
+        <v>104.38657461</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.72909101</v>
+        <v>102.30955358</v>
       </c>
       <c r="C85" t="n">
-        <v>101.37071374</v>
+        <v>103.13482121</v>
       </c>
       <c r="D85" t="n">
-        <v>101.69333949</v>
+        <v>101.59954906</v>
       </c>
       <c r="E85" t="n">
-        <v>96.72241654</v>
+        <v>96.71842146</v>
       </c>
       <c r="F85" t="n">
-        <v>101.31138796</v>
+        <v>101.96455123</v>
       </c>
       <c r="G85" t="n">
-        <v>104.67457097</v>
+        <v>104.43825472</v>
       </c>
       <c r="H85" t="n">
-        <v>100.43936351</v>
+        <v>101.22953888</v>
       </c>
       <c r="I85" t="n">
-        <v>99.64967083000001</v>
+        <v>100.58581769</v>
       </c>
       <c r="J85" t="n">
-        <v>102.31242439</v>
+        <v>107.29717997</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100</v>
+        <v>101.2127136</v>
       </c>
       <c r="C86" t="n">
-        <v>107.2366</v>
+        <v>102.60887119</v>
       </c>
       <c r="D86" t="n">
-        <v>103.7</v>
+        <v>101.77411608</v>
       </c>
       <c r="E86" t="n">
-        <v>99.8</v>
+        <v>96.59861282999999</v>
       </c>
       <c r="F86" t="n">
-        <v>102.1</v>
+        <v>102.0720505</v>
       </c>
       <c r="G86" t="n">
-        <v>104.8</v>
+        <v>103.80598638</v>
       </c>
       <c r="H86" t="n">
-        <v>101.6</v>
+        <v>101.27723911</v>
       </c>
       <c r="I86" t="n">
-        <v>99.7</v>
+        <v>100.60966928</v>
       </c>
       <c r="J86" t="n">
-        <v>118.9</v>
+        <v>106.1784359</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.17580322</v>
+        <v>100.82409002</v>
       </c>
       <c r="C87" t="n">
-        <v>107.6232748</v>
+        <v>103.1530461</v>
       </c>
       <c r="D87" t="n">
-        <v>103.85237018</v>
+        <v>102.0102217</v>
       </c>
       <c r="E87" t="n">
-        <v>99.68469354</v>
+        <v>97.90762395</v>
       </c>
       <c r="F87" t="n">
-        <v>101.90296837</v>
+        <v>102.22382999</v>
       </c>
       <c r="G87" t="n">
-        <v>106.17462419</v>
+        <v>103.80435992</v>
       </c>
       <c r="H87" t="n">
-        <v>101.62366948</v>
+        <v>101.55556864</v>
       </c>
       <c r="I87" t="n">
-        <v>99.69384889</v>
+        <v>100.83342587</v>
       </c>
       <c r="J87" t="n">
-        <v>119.24967467</v>
+        <v>107.16465779</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.95115066</v>
+        <v>101.96686875</v>
       </c>
       <c r="C88" t="n">
-        <v>107.15549853</v>
+        <v>103.63595597</v>
       </c>
       <c r="D88" t="n">
-        <v>103.97135934</v>
+        <v>102.00676008</v>
       </c>
       <c r="E88" t="n">
-        <v>99.63676697</v>
+        <v>98.04356412999999</v>
       </c>
       <c r="F88" t="n">
-        <v>101.79128323</v>
+        <v>102.33239277</v>
       </c>
       <c r="G88" t="n">
-        <v>106.25237726</v>
+        <v>103.90845706</v>
       </c>
       <c r="H88" t="n">
-        <v>101.52444255</v>
+        <v>101.62761696</v>
       </c>
       <c r="I88" t="n">
-        <v>99.44393959999999</v>
+        <v>100.51837814</v>
       </c>
       <c r="J88" t="n">
-        <v>117.59076095</v>
+        <v>108.30869217</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>101.2127136</v>
+        <v>101.56486615</v>
       </c>
       <c r="C89" t="n">
-        <v>102.60887119</v>
+        <v>103.3781221</v>
       </c>
       <c r="D89" t="n">
-        <v>101.77411608</v>
+        <v>102.0428615</v>
       </c>
       <c r="E89" t="n">
-        <v>96.59861282999999</v>
+        <v>97.93813532</v>
       </c>
       <c r="F89" t="n">
-        <v>102.0720505</v>
+        <v>102.17642988</v>
       </c>
       <c r="G89" t="n">
-        <v>103.80598638</v>
+        <v>104.05485612</v>
       </c>
       <c r="H89" t="n">
-        <v>101.27723911</v>
+        <v>101.54028716</v>
       </c>
       <c r="I89" t="n">
-        <v>100.60966928</v>
+        <v>100.50328895</v>
       </c>
       <c r="J89" t="n">
-        <v>106.1784359</v>
+        <v>107.65420764</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.82409002</v>
+        <v>101.13024732</v>
       </c>
       <c r="C90" t="n">
-        <v>103.1530461</v>
+        <v>103.91713075</v>
       </c>
       <c r="D90" t="n">
-        <v>102.0102217</v>
+        <v>102.25355874</v>
       </c>
       <c r="E90" t="n">
-        <v>97.90762395</v>
+        <v>98.05508085</v>
       </c>
       <c r="F90" t="n">
-        <v>102.22382999</v>
+        <v>102.21527818</v>
       </c>
       <c r="G90" t="n">
-        <v>103.80435992</v>
+        <v>103.91025508</v>
       </c>
       <c r="H90" t="n">
-        <v>101.55556864</v>
+        <v>101.62769735</v>
       </c>
       <c r="I90" t="n">
-        <v>100.83342587</v>
+        <v>100.38050247</v>
       </c>
       <c r="J90" t="n">
-        <v>107.16465779</v>
+        <v>109.47479942</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>101.96686875</v>
+        <v>100.43004441</v>
       </c>
       <c r="C91" t="n">
-        <v>103.63595597</v>
+        <v>104.98046452</v>
       </c>
       <c r="D91" t="n">
-        <v>102.00676008</v>
+        <v>102.57044008</v>
       </c>
       <c r="E91" t="n">
-        <v>98.04356412999999</v>
+        <v>98.01494511</v>
       </c>
       <c r="F91" t="n">
-        <v>102.33239277</v>
+        <v>102.15539351</v>
       </c>
       <c r="G91" t="n">
-        <v>103.90845706</v>
+        <v>104.16633301</v>
       </c>
       <c r="H91" t="n">
-        <v>101.62761696</v>
+        <v>101.61284107</v>
       </c>
       <c r="I91" t="n">
-        <v>100.51837814</v>
+        <v>100.35384674</v>
       </c>
       <c r="J91" t="n">
-        <v>108.30869217</v>
+        <v>112.94347992</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>101.56486615</v>
+        <v>100.20380479</v>
       </c>
       <c r="C92" t="n">
-        <v>103.3781221</v>
+        <v>106.3260267</v>
       </c>
       <c r="D92" t="n">
-        <v>102.0428615</v>
+        <v>102.90035069</v>
       </c>
       <c r="E92" t="n">
-        <v>97.93813532</v>
+        <v>97.94098975</v>
       </c>
       <c r="F92" t="n">
-        <v>102.17642988</v>
+        <v>102.21396869</v>
       </c>
       <c r="G92" t="n">
-        <v>104.05485612</v>
+        <v>104.05327424</v>
       </c>
       <c r="H92" t="n">
-        <v>101.54028716</v>
+        <v>101.65858039</v>
       </c>
       <c r="I92" t="n">
-        <v>100.50328895</v>
+        <v>100.23386681</v>
       </c>
       <c r="J92" t="n">
-        <v>107.65420764</v>
+        <v>117.37973086</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>101.13024732</v>
+        <v>100.06234919</v>
       </c>
       <c r="C93" t="n">
-        <v>103.91713075</v>
+        <v>107.24832528</v>
       </c>
       <c r="D93" t="n">
-        <v>102.25355874</v>
+        <v>103.02647435</v>
       </c>
       <c r="E93" t="n">
-        <v>98.05508085</v>
+        <v>98.03776544</v>
       </c>
       <c r="F93" t="n">
-        <v>102.21527818</v>
+        <v>102.12665781</v>
       </c>
       <c r="G93" t="n">
-        <v>103.91025508</v>
+        <v>104.08754326</v>
       </c>
       <c r="H93" t="n">
-        <v>101.62769735</v>
+        <v>101.64974538</v>
       </c>
       <c r="I93" t="n">
-        <v>100.38050247</v>
+        <v>99.86585768</v>
       </c>
       <c r="J93" t="n">
-        <v>109.47479942</v>
+        <v>120.24033735</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.43004441</v>
+        <v>100.06969574</v>
       </c>
       <c r="C94" t="n">
-        <v>104.98046452</v>
+        <v>107.09965882</v>
       </c>
       <c r="D94" t="n">
-        <v>102.57044008</v>
+        <v>103.48897127</v>
       </c>
       <c r="E94" t="n">
-        <v>98.01494511</v>
+        <v>99.8296874</v>
       </c>
       <c r="F94" t="n">
-        <v>102.15539351</v>
+        <v>102.06511499</v>
       </c>
       <c r="G94" t="n">
-        <v>104.16633301</v>
+        <v>104.20120395</v>
       </c>
       <c r="H94" t="n">
-        <v>101.61284107</v>
+        <v>101.62414228</v>
       </c>
       <c r="I94" t="n">
-        <v>100.35384674</v>
+        <v>99.79894138</v>
       </c>
       <c r="J94" t="n">
-        <v>112.94347992</v>
+        <v>118.61276404</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.20380479</v>
+        <v>100</v>
       </c>
       <c r="C95" t="n">
-        <v>106.3260267</v>
+        <v>107.2366</v>
       </c>
       <c r="D95" t="n">
-        <v>102.90035069</v>
+        <v>103.7</v>
       </c>
       <c r="E95" t="n">
-        <v>97.94098975</v>
+        <v>99.8</v>
       </c>
       <c r="F95" t="n">
-        <v>102.21396869</v>
+        <v>102.1</v>
       </c>
       <c r="G95" t="n">
-        <v>104.05327424</v>
+        <v>104.8</v>
       </c>
       <c r="H95" t="n">
-        <v>101.65858039</v>
+        <v>101.6</v>
       </c>
       <c r="I95" t="n">
-        <v>100.23386681</v>
+        <v>99.7</v>
       </c>
       <c r="J95" t="n">
-        <v>117.37973086</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.06234919</v>
+        <v>100.17580322</v>
       </c>
       <c r="C96" t="n">
-        <v>107.24832528</v>
+        <v>107.6232748</v>
       </c>
       <c r="D96" t="n">
-        <v>103.02647435</v>
+        <v>103.85237018</v>
       </c>
       <c r="E96" t="n">
-        <v>98.03776544</v>
+        <v>99.68469354</v>
       </c>
       <c r="F96" t="n">
-        <v>102.12665781</v>
+        <v>101.90296837</v>
       </c>
       <c r="G96" t="n">
-        <v>104.08754326</v>
+        <v>106.17462419</v>
       </c>
       <c r="H96" t="n">
-        <v>101.64974538</v>
+        <v>101.62366948</v>
       </c>
       <c r="I96" t="n">
-        <v>99.86585768</v>
+        <v>99.69384889</v>
       </c>
       <c r="J96" t="n">
-        <v>120.24033735</v>
+        <v>119.24967467</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.06969574</v>
+        <v>99.95115066</v>
       </c>
       <c r="C97" t="n">
-        <v>107.09965882</v>
+        <v>107.15549853</v>
       </c>
       <c r="D97" t="n">
-        <v>103.48897127</v>
+        <v>103.97135934</v>
       </c>
       <c r="E97" t="n">
-        <v>99.8296874</v>
+        <v>99.63676697</v>
       </c>
       <c r="F97" t="n">
-        <v>102.06511499</v>
+        <v>101.79128323</v>
       </c>
       <c r="G97" t="n">
-        <v>104.20120395</v>
+        <v>106.25237726</v>
       </c>
       <c r="H97" t="n">
-        <v>101.62414228</v>
+        <v>101.52444255</v>
       </c>
       <c r="I97" t="n">
-        <v>99.79894138</v>
+        <v>99.44393959999999</v>
       </c>
       <c r="J97" t="n">
-        <v>118.61276404</v>
+        <v>117.59076095</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>101.43367319</v>
+        <v>100.42555597</v>
       </c>
       <c r="C98" t="n">
-        <v>104.57596633</v>
+        <v>107.72089971</v>
       </c>
       <c r="D98" t="n">
-        <v>102.58400989</v>
+        <v>103.89555413</v>
       </c>
       <c r="E98" t="n">
-        <v>100.82671234</v>
+        <v>99.60245251000001</v>
       </c>
       <c r="F98" t="n">
-        <v>102.7480126</v>
+        <v>101.7835124</v>
       </c>
       <c r="G98" t="n">
-        <v>108.56101077</v>
+        <v>106.56131559</v>
       </c>
       <c r="H98" t="n">
-        <v>102.99093427</v>
+        <v>101.95587874</v>
       </c>
       <c r="I98" t="n">
-        <v>99.43802778</v>
+        <v>99.53696078999999</v>
       </c>
       <c r="J98" t="n">
-        <v>107.33546833</v>
+        <v>119.00312171</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.7099953</v>
+        <v>100.44503895</v>
       </c>
       <c r="C99" t="n">
-        <v>102.93399751</v>
+        <v>109.23440817</v>
       </c>
       <c r="D99" t="n">
-        <v>102.31691197</v>
+        <v>103.6</v>
       </c>
       <c r="E99" t="n">
-        <v>100.87747223</v>
+        <v>99.30674577000001</v>
       </c>
       <c r="F99" t="n">
-        <v>102.48364155</v>
+        <v>101.79380359</v>
       </c>
       <c r="G99" t="n">
-        <v>105.16598393</v>
+        <v>107.30429369</v>
       </c>
       <c r="H99" t="n">
-        <v>102.80430089</v>
+        <v>102.3</v>
       </c>
       <c r="I99" t="n">
-        <v>99.19456750000001</v>
+        <v>99.36719402</v>
       </c>
       <c r="J99" t="n">
-        <v>104.39449054</v>
+        <v>123.55564499</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.04961936</v>
+        <v>99.75255172999999</v>
       </c>
       <c r="C100" t="n">
-        <v>101.85682605</v>
+        <v>109.03303537</v>
       </c>
       <c r="D100" t="n">
-        <v>101.97553777</v>
+        <v>104.13850957</v>
       </c>
       <c r="E100" t="n">
-        <v>100.75122369</v>
+        <v>99.48601092</v>
       </c>
       <c r="F100" t="n">
-        <v>102.24888156</v>
+        <v>102.18748038</v>
       </c>
       <c r="G100" t="n">
-        <v>103.05711641</v>
+        <v>108.12157545</v>
       </c>
       <c r="H100" t="n">
-        <v>102.4742978</v>
+        <v>102.24466228</v>
       </c>
       <c r="I100" t="n">
-        <v>98.84979951</v>
+        <v>99.42635894</v>
       </c>
       <c r="J100" t="n">
-        <v>102.80216091</v>
+        <v>122.49360373</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.42555597</v>
+        <v>99.92211709999999</v>
       </c>
       <c r="C101" t="n">
-        <v>107.72089971</v>
+        <v>109.27372019</v>
       </c>
       <c r="D101" t="n">
-        <v>103.89555413</v>
+        <v>104.04044464</v>
       </c>
       <c r="E101" t="n">
-        <v>99.60245251000001</v>
+        <v>99.46417439</v>
       </c>
       <c r="F101" t="n">
-        <v>101.7835124</v>
+        <v>102.47348622</v>
       </c>
       <c r="G101" t="n">
-        <v>106.56131559</v>
+        <v>108.34495996</v>
       </c>
       <c r="H101" t="n">
-        <v>101.95587874</v>
+        <v>102.44068668</v>
       </c>
       <c r="I101" t="n">
-        <v>99.53696078999999</v>
+        <v>99.34416075</v>
       </c>
       <c r="J101" t="n">
-        <v>119.00312171</v>
+        <v>123.10235974</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.44503895</v>
+        <v>100.04494284</v>
       </c>
       <c r="C102" t="n">
-        <v>109.23440817</v>
+        <v>108.54811363</v>
       </c>
       <c r="D102" t="n">
-        <v>103.6</v>
+        <v>103.65539637</v>
       </c>
       <c r="E102" t="n">
-        <v>99.30674577000001</v>
+        <v>99.30951922</v>
       </c>
       <c r="F102" t="n">
-        <v>101.79380359</v>
+        <v>102.46748193</v>
       </c>
       <c r="G102" t="n">
-        <v>107.30429369</v>
+        <v>109.00571103</v>
       </c>
       <c r="H102" t="n">
-        <v>102.3</v>
+        <v>102.58724772</v>
       </c>
       <c r="I102" t="n">
-        <v>99.36719402</v>
+        <v>99.35064767</v>
       </c>
       <c r="J102" t="n">
-        <v>123.55564499</v>
+        <v>120.50027175</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.75255172999999</v>
+        <v>100.59325592</v>
       </c>
       <c r="C103" t="n">
-        <v>109.03303537</v>
+        <v>107.80239851</v>
       </c>
       <c r="D103" t="n">
-        <v>104.13850957</v>
+        <v>103.4143868</v>
       </c>
       <c r="E103" t="n">
-        <v>99.48601092</v>
+        <v>99.39246979000001</v>
       </c>
       <c r="F103" t="n">
-        <v>102.18748038</v>
+        <v>102.41243699</v>
       </c>
       <c r="G103" t="n">
-        <v>108.12157545</v>
+        <v>110.38337019</v>
       </c>
       <c r="H103" t="n">
-        <v>102.24466228</v>
+        <v>102.75822301</v>
       </c>
       <c r="I103" t="n">
-        <v>99.42635894</v>
+        <v>99.26434397</v>
       </c>
       <c r="J103" t="n">
-        <v>122.49360373</v>
+        <v>117.21162411</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.92211709999999</v>
+        <v>101.54806037</v>
       </c>
       <c r="C104" t="n">
-        <v>109.27372019</v>
+        <v>106.84982107</v>
       </c>
       <c r="D104" t="n">
-        <v>104.04044464</v>
+        <v>103.20401043</v>
       </c>
       <c r="E104" t="n">
-        <v>99.46417439</v>
+        <v>99.51015151999999</v>
       </c>
       <c r="F104" t="n">
-        <v>102.47348622</v>
+        <v>102.45073961</v>
       </c>
       <c r="G104" t="n">
-        <v>108.34495996</v>
+        <v>110.97661973</v>
       </c>
       <c r="H104" t="n">
-        <v>102.44068668</v>
+        <v>102.83234521</v>
       </c>
       <c r="I104" t="n">
-        <v>99.34416075</v>
+        <v>99.39359872</v>
       </c>
       <c r="J104" t="n">
-        <v>123.10235974</v>
+        <v>113.55065703</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.04494284</v>
+        <v>101.66588351</v>
       </c>
       <c r="C105" t="n">
-        <v>108.54811363</v>
+        <v>105.41697967</v>
       </c>
       <c r="D105" t="n">
-        <v>103.65539637</v>
+        <v>103.05247243</v>
       </c>
       <c r="E105" t="n">
-        <v>99.30951922</v>
+        <v>99.50962144</v>
       </c>
       <c r="F105" t="n">
-        <v>102.46748193</v>
+        <v>102.6352313</v>
       </c>
       <c r="G105" t="n">
-        <v>109.00571103</v>
+        <v>110.68058279</v>
       </c>
       <c r="H105" t="n">
-        <v>102.58724772</v>
+        <v>102.88266145</v>
       </c>
       <c r="I105" t="n">
-        <v>99.35064767</v>
+        <v>99.69152142</v>
       </c>
       <c r="J105" t="n">
-        <v>120.50027175</v>
+        <v>109.24988096</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.59325592</v>
+        <v>101.48695267</v>
       </c>
       <c r="C106" t="n">
-        <v>107.80239851</v>
+        <v>105.27720151</v>
       </c>
       <c r="D106" t="n">
-        <v>103.4143868</v>
+        <v>102.71648959</v>
       </c>
       <c r="E106" t="n">
-        <v>99.39246979000001</v>
+        <v>100.78947621</v>
       </c>
       <c r="F106" t="n">
-        <v>102.41243699</v>
+        <v>102.81507078</v>
       </c>
       <c r="G106" t="n">
-        <v>110.38337019</v>
+        <v>110.20651509</v>
       </c>
       <c r="H106" t="n">
-        <v>102.75822301</v>
+        <v>102.93853267</v>
       </c>
       <c r="I106" t="n">
-        <v>99.26434397</v>
+        <v>99.522953</v>
       </c>
       <c r="J106" t="n">
-        <v>117.21162411</v>
+        <v>108.67581518</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>101.54806037</v>
+        <v>101.43367319</v>
       </c>
       <c r="C107" t="n">
-        <v>106.84982107</v>
+        <v>104.57596633</v>
       </c>
       <c r="D107" t="n">
-        <v>103.20401043</v>
+        <v>102.58400989</v>
       </c>
       <c r="E107" t="n">
-        <v>99.51015151999999</v>
+        <v>100.82671234</v>
       </c>
       <c r="F107" t="n">
-        <v>102.45073961</v>
+        <v>102.7480126</v>
       </c>
       <c r="G107" t="n">
-        <v>110.97661973</v>
+        <v>108.56101077</v>
       </c>
       <c r="H107" t="n">
-        <v>102.83234521</v>
+        <v>102.99093427</v>
       </c>
       <c r="I107" t="n">
-        <v>99.39359872</v>
+        <v>99.43802778</v>
       </c>
       <c r="J107" t="n">
-        <v>113.55065703</v>
+        <v>107.33546833</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>101.66588351</v>
+        <v>100.7099953</v>
       </c>
       <c r="C108" t="n">
-        <v>105.41697967</v>
+        <v>102.93399751</v>
       </c>
       <c r="D108" t="n">
-        <v>103.05247243</v>
+        <v>102.31691197</v>
       </c>
       <c r="E108" t="n">
-        <v>99.50962144</v>
+        <v>100.87747223</v>
       </c>
       <c r="F108" t="n">
-        <v>102.6352313</v>
+        <v>102.48364155</v>
       </c>
       <c r="G108" t="n">
-        <v>110.68058279</v>
+        <v>105.16598393</v>
       </c>
       <c r="H108" t="n">
-        <v>102.88266145</v>
+        <v>102.80430089</v>
       </c>
       <c r="I108" t="n">
-        <v>99.69152142</v>
+        <v>99.19456750000001</v>
       </c>
       <c r="J108" t="n">
-        <v>109.24988096</v>
+        <v>104.39449054</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>101.48695267</v>
+        <v>100.04961936</v>
       </c>
       <c r="C109" t="n">
-        <v>105.27720151</v>
+        <v>101.85682605</v>
       </c>
       <c r="D109" t="n">
-        <v>102.71648959</v>
+        <v>101.97553777</v>
       </c>
       <c r="E109" t="n">
-        <v>100.78947621</v>
+        <v>100.75122369</v>
       </c>
       <c r="F109" t="n">
-        <v>102.81507078</v>
+        <v>102.24888156</v>
       </c>
       <c r="G109" t="n">
-        <v>110.20651509</v>
+        <v>103.05711641</v>
       </c>
       <c r="H109" t="n">
-        <v>102.93853267</v>
+        <v>102.4742978</v>
       </c>
       <c r="I109" t="n">
-        <v>99.522953</v>
+        <v>98.84979951</v>
       </c>
       <c r="J109" t="n">
-        <v>108.67581518</v>
+        <v>102.80216091</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97.84322988</v>
+        <v>98.64499218</v>
       </c>
       <c r="C110" t="n">
-        <v>99.87194589000001</v>
+        <v>101.5037785</v>
       </c>
       <c r="D110" t="n">
-        <v>101.52031729</v>
+        <v>101.87895241</v>
       </c>
       <c r="E110" t="n">
-        <v>100.24283593</v>
+        <v>100.94940702</v>
       </c>
       <c r="F110" t="n">
-        <v>98.87860388999999</v>
+        <v>101.97079378</v>
       </c>
       <c r="G110" t="n">
-        <v>97.14244988999999</v>
+        <v>102.22663767</v>
       </c>
       <c r="H110" t="n">
-        <v>101.09953245</v>
+        <v>102.061407</v>
       </c>
       <c r="I110" t="n">
-        <v>98.60057205</v>
+        <v>98.35940508</v>
       </c>
       <c r="J110" t="n">
-        <v>101.68016452</v>
+        <v>102.91653672</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>98.13870119000001</v>
+        <v>97.64584422</v>
       </c>
       <c r="C111" t="n">
-        <v>100.93090744</v>
+        <v>99.16135256</v>
       </c>
       <c r="D111" t="n">
-        <v>101.90896186</v>
+        <v>101.62401719</v>
       </c>
       <c r="E111" t="n">
-        <v>100.23318982</v>
+        <v>100.81691528</v>
       </c>
       <c r="F111" t="n">
-        <v>99.01063784</v>
+        <v>101.60980593</v>
       </c>
       <c r="G111" t="n">
-        <v>99.10712911</v>
+        <v>101.15074651</v>
       </c>
       <c r="H111" t="n">
-        <v>101.07239948</v>
+        <v>101.66750084</v>
       </c>
       <c r="I111" t="n">
-        <v>98.7801269</v>
+        <v>97.93743968</v>
       </c>
       <c r="J111" t="n">
-        <v>103.6612269</v>
+        <v>97.31058327</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>98.88314513</v>
+        <v>98.24182487</v>
       </c>
       <c r="C112" t="n">
-        <v>102.06687908</v>
+        <v>99.33531137</v>
       </c>
       <c r="D112" t="n">
-        <v>102.49216248</v>
+        <v>101.25968234</v>
       </c>
       <c r="E112" t="n">
-        <v>100.42835831</v>
+        <v>100.82591024</v>
       </c>
       <c r="F112" t="n">
-        <v>99.19757069000001</v>
+        <v>100.94902448</v>
       </c>
       <c r="G112" t="n">
-        <v>101.10936065</v>
+        <v>100.05605722</v>
       </c>
       <c r="H112" t="n">
-        <v>101.16575311</v>
+        <v>101.49797366</v>
       </c>
       <c r="I112" t="n">
-        <v>99.00066495999999</v>
+        <v>98.3159428</v>
       </c>
       <c r="J112" t="n">
-        <v>105.61898357</v>
+        <v>98.19707008</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>98.64499218</v>
+        <v>98.55709947</v>
       </c>
       <c r="C113" t="n">
-        <v>101.5037785</v>
+        <v>99.03031178000001</v>
       </c>
       <c r="D113" t="n">
-        <v>101.87895241</v>
+        <v>101.08115102</v>
       </c>
       <c r="E113" t="n">
-        <v>100.94940702</v>
+        <v>100.86781061</v>
       </c>
       <c r="F113" t="n">
-        <v>101.97079378</v>
+        <v>100.40192919</v>
       </c>
       <c r="G113" t="n">
-        <v>102.22663767</v>
+        <v>99.19931548</v>
       </c>
       <c r="H113" t="n">
-        <v>102.061407</v>
+        <v>101.35063739</v>
       </c>
       <c r="I113" t="n">
-        <v>98.35940508</v>
+        <v>98.31572361000001</v>
       </c>
       <c r="J113" t="n">
-        <v>102.91653672</v>
+        <v>97.71982474000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>97.64584422</v>
+        <v>98.46826537</v>
       </c>
       <c r="C114" t="n">
-        <v>99.16135256</v>
+        <v>98.9987927</v>
       </c>
       <c r="D114" t="n">
-        <v>101.62401719</v>
+        <v>101.05972673</v>
       </c>
       <c r="E114" t="n">
-        <v>100.81691528</v>
+        <v>100.90111379</v>
       </c>
       <c r="F114" t="n">
-        <v>101.60980593</v>
+        <v>100.13217917</v>
       </c>
       <c r="G114" t="n">
-        <v>101.15074651</v>
+        <v>98.13188746</v>
       </c>
       <c r="H114" t="n">
-        <v>101.66750084</v>
+        <v>101.160948</v>
       </c>
       <c r="I114" t="n">
-        <v>97.93743968</v>
+        <v>98.40815688000001</v>
       </c>
       <c r="J114" t="n">
-        <v>97.31058327</v>
+        <v>98.13741605</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>98.24182487</v>
+        <v>98.29606828</v>
       </c>
       <c r="C115" t="n">
-        <v>99.33531137</v>
+        <v>98.57689026</v>
       </c>
       <c r="D115" t="n">
-        <v>101.25968234</v>
+        <v>101.21446382</v>
       </c>
       <c r="E115" t="n">
-        <v>100.82591024</v>
+        <v>100.85396485</v>
       </c>
       <c r="F115" t="n">
-        <v>100.94902448</v>
+        <v>99.90749055000001</v>
       </c>
       <c r="G115" t="n">
-        <v>100.05605722</v>
+        <v>96.47171458</v>
       </c>
       <c r="H115" t="n">
-        <v>101.49797366</v>
+        <v>101.02704508</v>
       </c>
       <c r="I115" t="n">
-        <v>98.3159428</v>
+        <v>98.44316671</v>
       </c>
       <c r="J115" t="n">
-        <v>98.19707008</v>
+        <v>97.6932063</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>98.55709947</v>
+        <v>97.89346146</v>
       </c>
       <c r="C116" t="n">
-        <v>99.03031178000001</v>
+        <v>98.41734611</v>
       </c>
       <c r="D116" t="n">
-        <v>101.08115102</v>
+        <v>101.05896636</v>
       </c>
       <c r="E116" t="n">
-        <v>100.86781061</v>
+        <v>100.69866416</v>
       </c>
       <c r="F116" t="n">
-        <v>100.40192919</v>
+        <v>99.53338875999999</v>
       </c>
       <c r="G116" t="n">
-        <v>99.19931548</v>
+        <v>95.79013626</v>
       </c>
       <c r="H116" t="n">
-        <v>101.35063739</v>
+        <v>100.94009776</v>
       </c>
       <c r="I116" t="n">
-        <v>98.31572361000001</v>
+        <v>98.33938123</v>
       </c>
       <c r="J116" t="n">
-        <v>97.71982474000001</v>
+        <v>97.87084332000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>98.46826537</v>
+        <v>97.66634246</v>
       </c>
       <c r="C117" t="n">
-        <v>98.9987927</v>
+        <v>98.9816723</v>
       </c>
       <c r="D117" t="n">
-        <v>101.05972673</v>
+        <v>101.22457393</v>
       </c>
       <c r="E117" t="n">
-        <v>100.90111379</v>
+        <v>100.71431573</v>
       </c>
       <c r="F117" t="n">
-        <v>100.13217917</v>
+        <v>99.27245635</v>
       </c>
       <c r="G117" t="n">
-        <v>98.13188746</v>
+        <v>95.98077712</v>
       </c>
       <c r="H117" t="n">
-        <v>101.160948</v>
+        <v>101.07744242</v>
       </c>
       <c r="I117" t="n">
-        <v>98.40815688000001</v>
+        <v>98.26062505</v>
       </c>
       <c r="J117" t="n">
-        <v>98.13741605</v>
+        <v>99.58906068</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>98.29606828</v>
+        <v>97.92012566</v>
       </c>
       <c r="C118" t="n">
-        <v>98.57689026</v>
+        <v>99.44405601</v>
       </c>
       <c r="D118" t="n">
-        <v>101.21446382</v>
+        <v>101.41692793</v>
       </c>
       <c r="E118" t="n">
-        <v>100.85396485</v>
+        <v>100.18424608</v>
       </c>
       <c r="F118" t="n">
-        <v>99.90749055000001</v>
+        <v>98.95593737999999</v>
       </c>
       <c r="G118" t="n">
-        <v>96.47171458</v>
+        <v>96.21131015</v>
       </c>
       <c r="H118" t="n">
-        <v>101.02704508</v>
+        <v>101.13262072</v>
       </c>
       <c r="I118" t="n">
-        <v>98.44316671</v>
+        <v>98.3937105</v>
       </c>
       <c r="J118" t="n">
-        <v>97.6932063</v>
+        <v>100.95834653</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97.89346146</v>
+        <v>97.84322988</v>
       </c>
       <c r="C119" t="n">
-        <v>98.41734611</v>
+        <v>99.87194589000001</v>
       </c>
       <c r="D119" t="n">
-        <v>101.05896636</v>
+        <v>101.52031729</v>
       </c>
       <c r="E119" t="n">
-        <v>100.69866416</v>
+        <v>100.24283593</v>
       </c>
       <c r="F119" t="n">
-        <v>99.53338875999999</v>
+        <v>98.87860388999999</v>
       </c>
       <c r="G119" t="n">
-        <v>95.79013626</v>
+        <v>97.14244988999999</v>
       </c>
       <c r="H119" t="n">
-        <v>100.94009776</v>
+        <v>101.09953245</v>
       </c>
       <c r="I119" t="n">
-        <v>98.33938123</v>
+        <v>98.60057205</v>
       </c>
       <c r="J119" t="n">
-        <v>97.87084332000001</v>
+        <v>101.68016452</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>97.66634246</v>
+        <v>98.13870119000001</v>
       </c>
       <c r="C120" t="n">
-        <v>98.9816723</v>
+        <v>100.93090744</v>
       </c>
       <c r="D120" t="n">
-        <v>101.22457393</v>
+        <v>101.90896186</v>
       </c>
       <c r="E120" t="n">
-        <v>100.71431573</v>
+        <v>100.23318982</v>
       </c>
       <c r="F120" t="n">
-        <v>99.27245635</v>
+        <v>99.01063784</v>
       </c>
       <c r="G120" t="n">
-        <v>95.98077712</v>
+        <v>99.10712911</v>
       </c>
       <c r="H120" t="n">
-        <v>101.07744242</v>
+        <v>101.07239948</v>
       </c>
       <c r="I120" t="n">
-        <v>98.26062505</v>
+        <v>98.7801269</v>
       </c>
       <c r="J120" t="n">
-        <v>99.58906068</v>
+        <v>103.6612269</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>97.92012566</v>
+        <v>98.88314513</v>
       </c>
       <c r="C121" t="n">
-        <v>99.44405601</v>
+        <v>102.06687908</v>
       </c>
       <c r="D121" t="n">
-        <v>101.41692793</v>
+        <v>102.49216248</v>
       </c>
       <c r="E121" t="n">
-        <v>100.18424608</v>
+        <v>100.42835831</v>
       </c>
       <c r="F121" t="n">
-        <v>98.95593737999999</v>
+        <v>99.19757069000001</v>
       </c>
       <c r="G121" t="n">
-        <v>96.21131015</v>
+        <v>101.10936065</v>
       </c>
       <c r="H121" t="n">
-        <v>101.13262072</v>
+        <v>101.16575311</v>
       </c>
       <c r="I121" t="n">
-        <v>98.3937105</v>
+        <v>99.00066495999999</v>
       </c>
       <c r="J121" t="n">
-        <v>100.95834653</v>
+        <v>105.61898357</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100.16354483</v>
+        <v>99.8888523</v>
       </c>
       <c r="C122" t="n">
-        <v>104.6595973</v>
+        <v>101.80668399</v>
       </c>
       <c r="D122" t="n">
-        <v>103.59750548</v>
+        <v>102.57347315</v>
       </c>
       <c r="E122" t="n">
-        <v>101.13829596</v>
+        <v>100.31843021</v>
       </c>
       <c r="F122" t="n">
-        <v>100.47551132</v>
+        <v>99.35371985</v>
       </c>
       <c r="G122" t="n">
-        <v>105.08463736</v>
+        <v>102.1039494</v>
       </c>
       <c r="H122" t="n">
-        <v>101.29045472</v>
+        <v>101.29156535</v>
       </c>
       <c r="I122" t="n">
-        <v>99.48202379</v>
+        <v>99.11742331000001</v>
       </c>
       <c r="J122" t="n">
-        <v>110.24824993</v>
+        <v>103.839008</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100.12698979</v>
+        <v>100.7342942</v>
       </c>
       <c r="C123" t="n">
-        <v>105.60953613</v>
+        <v>102.89417793</v>
       </c>
       <c r="D123" t="n">
-        <v>103.88034188</v>
+        <v>102.73204567</v>
       </c>
       <c r="E123" t="n">
-        <v>101.03575176</v>
+        <v>100.83722467</v>
       </c>
       <c r="F123" t="n">
-        <v>100.71194959</v>
+        <v>99.57357856</v>
       </c>
       <c r="G123" t="n">
-        <v>106.60188575</v>
+        <v>102.73428334</v>
       </c>
       <c r="H123" t="n">
-        <v>101.43465169</v>
+        <v>101.41560033</v>
       </c>
       <c r="I123" t="n">
-        <v>100.24482812</v>
+        <v>99.23958628</v>
       </c>
       <c r="J123" t="n">
-        <v>112.10296295</v>
+        <v>106.28155714</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>100.10215943</v>
+        <v>100.70914052</v>
       </c>
       <c r="C124" t="n">
-        <v>105.07104541</v>
+        <v>102.63513146</v>
       </c>
       <c r="D124" t="n">
-        <v>103.72602904</v>
+        <v>102.69842246</v>
       </c>
       <c r="E124" t="n">
-        <v>100.96970184</v>
+        <v>100.7261681</v>
       </c>
       <c r="F124" t="n">
-        <v>100.72210933</v>
+        <v>99.65234350999999</v>
       </c>
       <c r="G124" t="n">
-        <v>106.93807363</v>
+        <v>103.10277753</v>
       </c>
       <c r="H124" t="n">
-        <v>101.58694308</v>
+        <v>101.4784804</v>
       </c>
       <c r="I124" t="n">
-        <v>100.64952733</v>
+        <v>99.05175868000001</v>
       </c>
       <c r="J124" t="n">
-        <v>110.09706765</v>
+        <v>105.38985638</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.8888523</v>
+        <v>100.63483937</v>
       </c>
       <c r="C125" t="n">
-        <v>101.80668399</v>
+        <v>103.04657103</v>
       </c>
       <c r="D125" t="n">
-        <v>102.57347315</v>
+        <v>102.96545774</v>
       </c>
       <c r="E125" t="n">
-        <v>100.31843021</v>
+        <v>100.75463984</v>
       </c>
       <c r="F125" t="n">
-        <v>99.35371985</v>
+        <v>99.84479493000001</v>
       </c>
       <c r="G125" t="n">
-        <v>102.1039494</v>
+        <v>104.23095522</v>
       </c>
       <c r="H125" t="n">
-        <v>101.29156535</v>
+        <v>101.39102307</v>
       </c>
       <c r="I125" t="n">
-        <v>99.11742331000001</v>
+        <v>99.14774297</v>
       </c>
       <c r="J125" t="n">
-        <v>103.839008</v>
+        <v>105.99806369</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.7342942</v>
+        <v>100.81820405</v>
       </c>
       <c r="C126" t="n">
-        <v>102.89417793</v>
+        <v>103.30850013</v>
       </c>
       <c r="D126" t="n">
-        <v>102.73204567</v>
+        <v>103.3241134</v>
       </c>
       <c r="E126" t="n">
-        <v>100.83722467</v>
+        <v>100.82656699</v>
       </c>
       <c r="F126" t="n">
-        <v>99.57357856</v>
+        <v>99.99539144000001</v>
       </c>
       <c r="G126" t="n">
-        <v>102.73428334</v>
+        <v>104.79397923</v>
       </c>
       <c r="H126" t="n">
-        <v>101.41560033</v>
+        <v>101.46870684</v>
       </c>
       <c r="I126" t="n">
-        <v>99.23958628</v>
+        <v>99.14626126</v>
       </c>
       <c r="J126" t="n">
-        <v>106.28155714</v>
+        <v>106.30779525</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100.70914052</v>
+        <v>100.36777257</v>
       </c>
       <c r="C127" t="n">
-        <v>102.63513146</v>
+        <v>103.21734551</v>
       </c>
       <c r="D127" t="n">
-        <v>102.69842246</v>
+        <v>103.30195667</v>
       </c>
       <c r="E127" t="n">
-        <v>100.7261681</v>
+        <v>100.92311035</v>
       </c>
       <c r="F127" t="n">
-        <v>99.65234350999999</v>
+        <v>100.13958183</v>
       </c>
       <c r="G127" t="n">
-        <v>103.10277753</v>
+        <v>104.81049133</v>
       </c>
       <c r="H127" t="n">
-        <v>101.4784804</v>
+        <v>101.58007189</v>
       </c>
       <c r="I127" t="n">
-        <v>99.05175868000001</v>
+        <v>99.28882231999999</v>
       </c>
       <c r="J127" t="n">
-        <v>105.38985638</v>
+        <v>106.07042263</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.63483937</v>
+        <v>99.87686144</v>
       </c>
       <c r="C128" t="n">
-        <v>103.04657103</v>
+        <v>103.49421502</v>
       </c>
       <c r="D128" t="n">
-        <v>102.96545774</v>
+        <v>103.39068266</v>
       </c>
       <c r="E128" t="n">
-        <v>100.75463984</v>
+        <v>101.09831898</v>
       </c>
       <c r="F128" t="n">
-        <v>99.84479493000001</v>
+        <v>100.20050897</v>
       </c>
       <c r="G128" t="n">
-        <v>104.23095522</v>
+        <v>104.59145155</v>
       </c>
       <c r="H128" t="n">
-        <v>101.39102307</v>
+        <v>101.49160002</v>
       </c>
       <c r="I128" t="n">
-        <v>99.14774297</v>
+        <v>99.13553494</v>
       </c>
       <c r="J128" t="n">
-        <v>105.99806369</v>
+        <v>107.17598112</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.81820405</v>
+        <v>100.0625969</v>
       </c>
       <c r="C129" t="n">
-        <v>103.30850013</v>
+        <v>103.69508637</v>
       </c>
       <c r="D129" t="n">
-        <v>103.3241134</v>
+        <v>103.33417004</v>
       </c>
       <c r="E129" t="n">
-        <v>100.82656699</v>
+        <v>101.1299845</v>
       </c>
       <c r="F129" t="n">
-        <v>99.99539144000001</v>
+        <v>100.33283567</v>
       </c>
       <c r="G129" t="n">
-        <v>104.79397923</v>
+        <v>104.30736812</v>
       </c>
       <c r="H129" t="n">
-        <v>101.46870684</v>
+        <v>101.32469584</v>
       </c>
       <c r="I129" t="n">
-        <v>99.14626126</v>
+        <v>98.79344465</v>
       </c>
       <c r="J129" t="n">
-        <v>106.30779525</v>
+        <v>107.9403225</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>100.36777257</v>
+        <v>99.96024423999999</v>
       </c>
       <c r="C130" t="n">
-        <v>103.21734551</v>
+        <v>103.86261819</v>
       </c>
       <c r="D130" t="n">
-        <v>103.30195667</v>
+        <v>103.39122992</v>
       </c>
       <c r="E130" t="n">
-        <v>100.92311035</v>
+        <v>101.13948188</v>
       </c>
       <c r="F130" t="n">
-        <v>100.13958183</v>
+        <v>100.38113268</v>
       </c>
       <c r="G130" t="n">
-        <v>104.81049133</v>
+        <v>104.32761732</v>
       </c>
       <c r="H130" t="n">
-        <v>101.58007189</v>
+        <v>101.22857986</v>
       </c>
       <c r="I130" t="n">
-        <v>99.28882231999999</v>
+        <v>99.13188337</v>
       </c>
       <c r="J130" t="n">
-        <v>106.07042263</v>
+        <v>108.36735774</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.87686144</v>
+        <v>100.16354483</v>
       </c>
       <c r="C131" t="n">
-        <v>103.49421502</v>
+        <v>104.6595973</v>
       </c>
       <c r="D131" t="n">
-        <v>103.39068266</v>
+        <v>103.59750548</v>
       </c>
       <c r="E131" t="n">
-        <v>101.09831898</v>
+        <v>101.13829596</v>
       </c>
       <c r="F131" t="n">
-        <v>100.20050897</v>
+        <v>100.47551132</v>
       </c>
       <c r="G131" t="n">
-        <v>104.59145155</v>
+        <v>105.08463736</v>
       </c>
       <c r="H131" t="n">
-        <v>101.49160002</v>
+        <v>101.29045472</v>
       </c>
       <c r="I131" t="n">
-        <v>99.13553494</v>
+        <v>99.48202379</v>
       </c>
       <c r="J131" t="n">
-        <v>107.17598112</v>
+        <v>110.24824993</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100.0625969</v>
+        <v>100.12698979</v>
       </c>
       <c r="C132" t="n">
-        <v>103.69508637</v>
+        <v>105.60953613</v>
       </c>
       <c r="D132" t="n">
-        <v>103.33417004</v>
+        <v>103.88034188</v>
       </c>
       <c r="E132" t="n">
-        <v>101.1299845</v>
+        <v>101.03575176</v>
       </c>
       <c r="F132" t="n">
-        <v>100.33283567</v>
+        <v>100.71194959</v>
       </c>
       <c r="G132" t="n">
-        <v>104.30736812</v>
+        <v>106.60188575</v>
       </c>
       <c r="H132" t="n">
-        <v>101.32469584</v>
+        <v>101.43465169</v>
       </c>
       <c r="I132" t="n">
-        <v>98.79344465</v>
+        <v>100.24482812</v>
       </c>
       <c r="J132" t="n">
-        <v>107.9403225</v>
+        <v>112.10296295</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>99.96024423999999</v>
+        <v>100.10215943</v>
       </c>
       <c r="C133" t="n">
-        <v>103.86261819</v>
+        <v>105.07104541</v>
       </c>
       <c r="D133" t="n">
-        <v>103.39122992</v>
+        <v>103.72602904</v>
       </c>
       <c r="E133" t="n">
-        <v>101.13948188</v>
+        <v>100.96970184</v>
       </c>
       <c r="F133" t="n">
-        <v>100.38113268</v>
+        <v>100.72210933</v>
       </c>
       <c r="G133" t="n">
-        <v>104.32761732</v>
+        <v>106.93807363</v>
       </c>
       <c r="H133" t="n">
-        <v>101.22857986</v>
+        <v>101.58694308</v>
       </c>
       <c r="I133" t="n">
-        <v>99.13188337</v>
+        <v>100.64952733</v>
       </c>
       <c r="J133" t="n">
-        <v>108.36735774</v>
+        <v>110.09706765</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>101.69612955</v>
+        <v>100.32030522</v>
       </c>
       <c r="C134" t="n">
-        <v>105.86917554</v>
+        <v>105.22941491</v>
       </c>
       <c r="D134" t="n">
-        <v>103.68211759</v>
+        <v>102.91400824</v>
       </c>
       <c r="E134" t="n">
-        <v>100.38957555</v>
+        <v>101.11319451</v>
       </c>
       <c r="F134" t="n">
-        <v>101.88363764</v>
+        <v>100.80008194</v>
       </c>
       <c r="G134" t="n">
-        <v>104.68719573</v>
+        <v>106.97462403</v>
       </c>
       <c r="H134" t="n">
-        <v>103.04968483</v>
+        <v>101.70304857</v>
       </c>
       <c r="I134" t="n">
-        <v>103.14853085</v>
+        <v>100.64736064</v>
       </c>
       <c r="J134" t="n">
-        <v>112.46026788</v>
+        <v>110.7052642</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>101.4007444</v>
+        <v>100.43700915</v>
       </c>
       <c r="C135" t="n">
-        <v>104.34093829</v>
+        <v>105.51511084</v>
       </c>
       <c r="D135" t="n">
-        <v>103.40007925</v>
+        <v>102.77453254</v>
       </c>
       <c r="E135" t="n">
-        <v>100.47288641</v>
+        <v>100.73039833</v>
       </c>
       <c r="F135" t="n">
-        <v>101.77237069</v>
+        <v>100.83406756</v>
       </c>
       <c r="G135" t="n">
-        <v>103.02558705</v>
+        <v>106.68826208</v>
       </c>
       <c r="H135" t="n">
-        <v>103.11307862</v>
+        <v>101.71118084</v>
       </c>
       <c r="I135" t="n">
-        <v>103.2229546</v>
+        <v>100.54999483</v>
       </c>
       <c r="J135" t="n">
-        <v>108.67505509</v>
+        <v>111.82975399</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>101.09877429</v>
+        <v>100.8</v>
       </c>
       <c r="C136" t="n">
-        <v>104.10979433</v>
+        <v>105.8572</v>
       </c>
       <c r="D136" t="n">
-        <v>103.02981914</v>
+        <v>103</v>
       </c>
       <c r="E136" t="n">
-        <v>100.36593077</v>
+        <v>100.9</v>
       </c>
       <c r="F136" t="n">
-        <v>101.59533615</v>
+        <v>101.1</v>
       </c>
       <c r="G136" t="n">
-        <v>102.32569302</v>
+        <v>107</v>
       </c>
       <c r="H136" t="n">
-        <v>103.23559059</v>
+        <v>101.9</v>
       </c>
       <c r="I136" t="n">
-        <v>104.00844305</v>
+        <v>100.8</v>
       </c>
       <c r="J136" t="n">
-        <v>108.41538439</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>100.32030522</v>
+        <v>101.2</v>
       </c>
       <c r="C137" t="n">
-        <v>105.22941491</v>
+        <v>105.8453</v>
       </c>
       <c r="D137" t="n">
-        <v>102.91400824</v>
+        <v>103</v>
       </c>
       <c r="E137" t="n">
-        <v>101.11319451</v>
+        <v>101</v>
       </c>
       <c r="F137" t="n">
-        <v>100.80008194</v>
+        <v>101.3</v>
       </c>
       <c r="G137" t="n">
-        <v>106.97462403</v>
+        <v>106.8</v>
       </c>
       <c r="H137" t="n">
-        <v>101.70304857</v>
+        <v>102.1</v>
       </c>
       <c r="I137" t="n">
-        <v>100.64736064</v>
+        <v>101.1</v>
       </c>
       <c r="J137" t="n">
-        <v>110.7052642</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>100.43700915</v>
+        <v>101.4</v>
       </c>
       <c r="C138" t="n">
-        <v>105.51511084</v>
+        <v>106.0216</v>
       </c>
       <c r="D138" t="n">
-        <v>102.77453254</v>
+        <v>103.1</v>
       </c>
       <c r="E138" t="n">
-        <v>100.73039833</v>
+        <v>101</v>
       </c>
       <c r="F138" t="n">
-        <v>100.83406756</v>
+        <v>101.5</v>
       </c>
       <c r="G138" t="n">
-        <v>106.68826208</v>
+        <v>106.7</v>
       </c>
       <c r="H138" t="n">
-        <v>101.71118084</v>
+        <v>102.3</v>
       </c>
       <c r="I138" t="n">
-        <v>100.54999483</v>
+        <v>101.5</v>
       </c>
       <c r="J138" t="n">
-        <v>111.82975399</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>100.8</v>
+        <v>101.7</v>
       </c>
       <c r="C139" t="n">
-        <v>105.8572</v>
+        <v>106.9611</v>
       </c>
       <c r="D139" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="E139" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="F139" t="n">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="G139" t="n">
-        <v>107</v>
+        <v>106.5</v>
       </c>
       <c r="H139" t="n">
-        <v>101.9</v>
+        <v>102.3</v>
       </c>
       <c r="I139" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="J139" t="n">
-        <v>112.4</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>101.2</v>
+        <v>101.75340247</v>
       </c>
       <c r="C140" t="n">
-        <v>105.8453</v>
+        <v>107.0640754</v>
       </c>
       <c r="D140" t="n">
-        <v>103</v>
+        <v>103.58460784</v>
       </c>
       <c r="E140" t="n">
-        <v>101</v>
+        <v>100.99823091</v>
       </c>
       <c r="F140" t="n">
-        <v>101.3</v>
+        <v>101.69675651</v>
       </c>
       <c r="G140" t="n">
-        <v>106.8</v>
+        <v>106.435202</v>
       </c>
       <c r="H140" t="n">
-        <v>102.1</v>
+        <v>102.47821726</v>
       </c>
       <c r="I140" t="n">
-        <v>101.1</v>
+        <v>101.67936064</v>
       </c>
       <c r="J140" t="n">
-        <v>112.2</v>
+        <v>115.81952361</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>101.4</v>
+        <v>101.87937454</v>
       </c>
       <c r="C141" t="n">
-        <v>106.0216</v>
+        <v>106.65867795</v>
       </c>
       <c r="D141" t="n">
-        <v>103.1</v>
+        <v>103.92275492</v>
       </c>
       <c r="E141" t="n">
-        <v>101</v>
+        <v>100.9948969</v>
       </c>
       <c r="F141" t="n">
-        <v>101.5</v>
+        <v>101.7888128</v>
       </c>
       <c r="G141" t="n">
-        <v>106.7</v>
+        <v>106.20721695</v>
       </c>
       <c r="H141" t="n">
-        <v>102.3</v>
+        <v>102.56171703</v>
       </c>
       <c r="I141" t="n">
-        <v>101.5</v>
+        <v>102.24138787</v>
       </c>
       <c r="J141" t="n">
-        <v>112.6</v>
+        <v>114.13597043</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>101.7</v>
+        <v>101.9230213</v>
       </c>
       <c r="C142" t="n">
-        <v>106.9611</v>
+        <v>106.55281342</v>
       </c>
       <c r="D142" t="n">
-        <v>103.3</v>
+        <v>104.02051579</v>
       </c>
       <c r="E142" t="n">
-        <v>101</v>
+        <v>100.36033735</v>
       </c>
       <c r="F142" t="n">
-        <v>101.6</v>
+        <v>101.86300292</v>
       </c>
       <c r="G142" t="n">
-        <v>106.5</v>
+        <v>105.59750481</v>
       </c>
       <c r="H142" t="n">
-        <v>102.3</v>
+        <v>102.86920103</v>
       </c>
       <c r="I142" t="n">
-        <v>101.6</v>
+        <v>102.51965271</v>
       </c>
       <c r="J142" t="n">
-        <v>115.7</v>
+        <v>114.16126995</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>101.75340247</v>
+        <v>101.69612955</v>
       </c>
       <c r="C143" t="n">
-        <v>107.0640754</v>
+        <v>105.86917554</v>
       </c>
       <c r="D143" t="n">
-        <v>103.58460784</v>
+        <v>103.68211759</v>
       </c>
       <c r="E143" t="n">
-        <v>100.99823091</v>
+        <v>100.38957555</v>
       </c>
       <c r="F143" t="n">
-        <v>101.69675651</v>
+        <v>101.88363764</v>
       </c>
       <c r="G143" t="n">
-        <v>106.435202</v>
+        <v>104.68719573</v>
       </c>
       <c r="H143" t="n">
-        <v>102.47821726</v>
+        <v>103.04968483</v>
       </c>
       <c r="I143" t="n">
-        <v>101.67936064</v>
+        <v>103.14853085</v>
       </c>
       <c r="J143" t="n">
-        <v>115.81952361</v>
+        <v>112.46026788</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>101.87937454</v>
+        <v>101.4007444</v>
       </c>
       <c r="C144" t="n">
-        <v>106.65867795</v>
+        <v>104.34093829</v>
       </c>
       <c r="D144" t="n">
-        <v>103.92275492</v>
+        <v>103.40007925</v>
       </c>
       <c r="E144" t="n">
-        <v>100.9948969</v>
+        <v>100.47288641</v>
       </c>
       <c r="F144" t="n">
-        <v>101.7888128</v>
+        <v>101.77237069</v>
       </c>
       <c r="G144" t="n">
-        <v>106.20721695</v>
+        <v>103.02558705</v>
       </c>
       <c r="H144" t="n">
-        <v>102.56171703</v>
+        <v>103.11307862</v>
       </c>
       <c r="I144" t="n">
-        <v>102.24138787</v>
+        <v>103.2229546</v>
       </c>
       <c r="J144" t="n">
-        <v>114.13597043</v>
+        <v>108.67505509</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>101.9230213</v>
+        <v>101.09877429</v>
       </c>
       <c r="C145" t="n">
-        <v>106.55281342</v>
+        <v>104.10979433</v>
       </c>
       <c r="D145" t="n">
-        <v>104.02051579</v>
+        <v>103.02981914</v>
       </c>
       <c r="E145" t="n">
-        <v>100.36033735</v>
+        <v>100.36593077</v>
       </c>
       <c r="F145" t="n">
-        <v>101.86300292</v>
+        <v>101.59533615</v>
       </c>
       <c r="G145" t="n">
-        <v>105.59750481</v>
+        <v>102.32569302</v>
       </c>
       <c r="H145" t="n">
-        <v>102.86920103</v>
+        <v>103.23559059</v>
       </c>
       <c r="I145" t="n">
-        <v>102.51965271</v>
+        <v>104.00844305</v>
       </c>
       <c r="J145" t="n">
-        <v>114.16126995</v>
+        <v>108.41538439</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>100.7631036</v>
+        <v>101.1779772</v>
       </c>
       <c r="C146" t="n">
-        <v>101.51604079</v>
+        <v>104.58079768</v>
       </c>
       <c r="D146" t="n">
-        <v>101.79618127</v>
+        <v>102.91874825</v>
       </c>
       <c r="E146" t="n">
-        <v>101.44326121</v>
+        <v>100.73208743</v>
       </c>
       <c r="F146" t="n">
-        <v>101.21224146</v>
+        <v>101.69165454</v>
       </c>
       <c r="G146" t="n">
-        <v>101.86229654</v>
+        <v>102.11385168</v>
       </c>
       <c r="H146" t="n">
-        <v>102.2559944</v>
+        <v>103.06823234</v>
       </c>
       <c r="I146" t="n">
-        <v>103.48072014</v>
+        <v>103.66313542</v>
       </c>
       <c r="J146" t="n">
-        <v>100.9975659</v>
+        <v>109.88053704</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>100.61533952</v>
+        <v>100.77310708</v>
       </c>
       <c r="C147" t="n">
-        <v>101.92549399</v>
+        <v>103.16296028</v>
       </c>
       <c r="D147" t="n">
-        <v>101.69294524</v>
+        <v>102.76871602</v>
       </c>
       <c r="E147" t="n">
-        <v>101.37891128</v>
+        <v>100.52958687</v>
       </c>
       <c r="F147" t="n">
-        <v>101.2147773</v>
+        <v>101.78289841</v>
       </c>
       <c r="G147" t="n">
-        <v>101.97166532</v>
+        <v>102.11269679</v>
       </c>
       <c r="H147" t="n">
-        <v>102.07448029</v>
+        <v>103.1336987</v>
       </c>
       <c r="I147" t="n">
-        <v>102.8558786</v>
+        <v>103.93689584</v>
       </c>
       <c r="J147" t="n">
-        <v>102.43361268</v>
+        <v>105.5557052</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.58940894</v>
+        <v>101.02497425</v>
       </c>
       <c r="C148" t="n">
-        <v>102.54803672</v>
+        <v>103.57914373</v>
       </c>
       <c r="D148" t="n">
-        <v>101.78519544</v>
+        <v>102.73260936</v>
       </c>
       <c r="E148" t="n">
-        <v>101.45550379</v>
+        <v>100.63271967</v>
       </c>
       <c r="F148" t="n">
-        <v>101.31789893</v>
+        <v>101.6969096</v>
       </c>
       <c r="G148" t="n">
-        <v>102.28927752</v>
+        <v>102.23371476</v>
       </c>
       <c r="H148" t="n">
-        <v>102.03157785</v>
+        <v>103.02408382</v>
       </c>
       <c r="I148" t="n">
-        <v>102.07014856</v>
+        <v>104.28179416</v>
       </c>
       <c r="J148" t="n">
-        <v>104.2628021</v>
+        <v>106.62511816</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>101.1779772</v>
+        <v>101.00417574</v>
       </c>
       <c r="C149" t="n">
-        <v>104.58079768</v>
+        <v>103.32781744</v>
       </c>
       <c r="D149" t="n">
-        <v>102.91874825</v>
+        <v>102.57500373</v>
       </c>
       <c r="E149" t="n">
-        <v>100.73208743</v>
+        <v>100.69604825</v>
       </c>
       <c r="F149" t="n">
-        <v>101.69165454</v>
+        <v>101.55555771</v>
       </c>
       <c r="G149" t="n">
-        <v>102.11385168</v>
+        <v>101.96442916</v>
       </c>
       <c r="H149" t="n">
-        <v>103.06823234</v>
+        <v>102.93850489</v>
       </c>
       <c r="I149" t="n">
-        <v>103.66313542</v>
+        <v>104.26605468</v>
       </c>
       <c r="J149" t="n">
-        <v>109.88053704</v>
+        <v>106.10693275</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.77310708</v>
+        <v>100.59070215</v>
       </c>
       <c r="C150" t="n">
-        <v>103.16296028</v>
+        <v>102.90154831</v>
       </c>
       <c r="D150" t="n">
-        <v>102.76871602</v>
+        <v>102.30814202</v>
       </c>
       <c r="E150" t="n">
-        <v>100.52958687</v>
+        <v>100.65454734</v>
       </c>
       <c r="F150" t="n">
-        <v>101.78289841</v>
+        <v>101.47767556</v>
       </c>
       <c r="G150" t="n">
-        <v>102.11269679</v>
+        <v>101.63861581</v>
       </c>
       <c r="H150" t="n">
-        <v>103.1336987</v>
+        <v>102.87788222</v>
       </c>
       <c r="I150" t="n">
-        <v>103.93689584</v>
+        <v>104.07858441</v>
       </c>
       <c r="J150" t="n">
-        <v>105.5557052</v>
+        <v>105.29088159</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>101.02497425</v>
+        <v>100.16101726</v>
       </c>
       <c r="C151" t="n">
-        <v>103.57914373</v>
+        <v>101.99846363</v>
       </c>
       <c r="D151" t="n">
-        <v>102.73260936</v>
+        <v>102.11179405</v>
       </c>
       <c r="E151" t="n">
-        <v>100.63271967</v>
+        <v>100.76900237</v>
       </c>
       <c r="F151" t="n">
-        <v>101.6969096</v>
+        <v>101.48886395</v>
       </c>
       <c r="G151" t="n">
-        <v>102.23371476</v>
+        <v>101.55523961</v>
       </c>
       <c r="H151" t="n">
-        <v>103.02408382</v>
+        <v>102.97052308</v>
       </c>
       <c r="I151" t="n">
-        <v>104.28179416</v>
+        <v>104.29762249</v>
       </c>
       <c r="J151" t="n">
-        <v>106.62511816</v>
+        <v>102.64695335</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>101.00417574</v>
+        <v>99.73804895000001</v>
       </c>
       <c r="C152" t="n">
-        <v>103.32781744</v>
+        <v>101.48146782</v>
       </c>
       <c r="D152" t="n">
-        <v>102.57500373</v>
+        <v>101.91184161</v>
       </c>
       <c r="E152" t="n">
-        <v>100.69604825</v>
+        <v>100.9529249</v>
       </c>
       <c r="F152" t="n">
-        <v>101.55555771</v>
+        <v>101.50183907</v>
       </c>
       <c r="G152" t="n">
-        <v>101.96442916</v>
+        <v>101.68906831</v>
       </c>
       <c r="H152" t="n">
-        <v>102.93850489</v>
+        <v>102.91887719</v>
       </c>
       <c r="I152" t="n">
-        <v>104.26605468</v>
+        <v>104.33238398</v>
       </c>
       <c r="J152" t="n">
-        <v>106.10693275</v>
+        <v>101.12703043</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.59070215</v>
+        <v>99.87361389</v>
       </c>
       <c r="C153" t="n">
-        <v>102.90154831</v>
+        <v>101.79682088</v>
       </c>
       <c r="D153" t="n">
-        <v>102.30814202</v>
+        <v>101.5844449</v>
       </c>
       <c r="E153" t="n">
-        <v>100.65454734</v>
+        <v>100.86551789</v>
       </c>
       <c r="F153" t="n">
-        <v>101.47767556</v>
+        <v>101.3608375</v>
       </c>
       <c r="G153" t="n">
-        <v>101.63861581</v>
+        <v>101.81185887</v>
       </c>
       <c r="H153" t="n">
-        <v>102.87788222</v>
+        <v>102.94033179</v>
       </c>
       <c r="I153" t="n">
-        <v>104.07858441</v>
+        <v>104.23365671</v>
       </c>
       <c r="J153" t="n">
-        <v>105.29088159</v>
+        <v>102.13242328</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>100.16101726</v>
+        <v>100.38016025</v>
       </c>
       <c r="C154" t="n">
-        <v>101.99846363</v>
+        <v>101.67138611</v>
       </c>
       <c r="D154" t="n">
-        <v>102.11179405</v>
+        <v>101.55041173</v>
       </c>
       <c r="E154" t="n">
-        <v>100.76900237</v>
+        <v>101.48043511</v>
       </c>
       <c r="F154" t="n">
-        <v>101.48886395</v>
+        <v>101.35729942</v>
       </c>
       <c r="G154" t="n">
-        <v>101.55523961</v>
+        <v>101.92163613</v>
       </c>
       <c r="H154" t="n">
-        <v>102.97052308</v>
+        <v>102.52331174</v>
       </c>
       <c r="I154" t="n">
-        <v>104.29762249</v>
+        <v>104.11978113</v>
       </c>
       <c r="J154" t="n">
-        <v>102.64695335</v>
+        <v>101.41626005</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>99.73804895000001</v>
+        <v>100.7631036</v>
       </c>
       <c r="C155" t="n">
-        <v>101.48146782</v>
+        <v>101.51604079</v>
       </c>
       <c r="D155" t="n">
-        <v>101.91184161</v>
+        <v>101.79618127</v>
       </c>
       <c r="E155" t="n">
-        <v>100.9529249</v>
+        <v>101.44326121</v>
       </c>
       <c r="F155" t="n">
-        <v>101.50183907</v>
+        <v>101.21224146</v>
       </c>
       <c r="G155" t="n">
-        <v>101.68906831</v>
+        <v>101.86229654</v>
       </c>
       <c r="H155" t="n">
-        <v>102.91887719</v>
+        <v>102.2559944</v>
       </c>
       <c r="I155" t="n">
-        <v>104.33238398</v>
+        <v>103.48072014</v>
       </c>
       <c r="J155" t="n">
-        <v>101.12703043</v>
+        <v>100.9975659</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>99.87361389</v>
+        <v>100.61533952</v>
       </c>
       <c r="C156" t="n">
-        <v>101.79682088</v>
+        <v>101.92549399</v>
       </c>
       <c r="D156" t="n">
-        <v>101.5844449</v>
+        <v>101.69294524</v>
       </c>
       <c r="E156" t="n">
-        <v>100.86551789</v>
+        <v>101.37891128</v>
       </c>
       <c r="F156" t="n">
-        <v>101.3608375</v>
+        <v>101.2147773</v>
       </c>
       <c r="G156" t="n">
-        <v>101.81185887</v>
+        <v>101.97166532</v>
       </c>
       <c r="H156" t="n">
-        <v>102.94033179</v>
+        <v>102.07448029</v>
       </c>
       <c r="I156" t="n">
-        <v>104.23365671</v>
+        <v>102.8558786</v>
       </c>
       <c r="J156" t="n">
-        <v>102.13242328</v>
+        <v>102.43361268</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>100.38016025</v>
+        <v>100.58940894</v>
       </c>
       <c r="C157" t="n">
-        <v>101.67138611</v>
+        <v>102.54803672</v>
       </c>
       <c r="D157" t="n">
-        <v>101.55041173</v>
+        <v>101.78519544</v>
       </c>
       <c r="E157" t="n">
-        <v>101.48043511</v>
+        <v>101.45550379</v>
       </c>
       <c r="F157" t="n">
-        <v>101.35729942</v>
+        <v>101.31789893</v>
       </c>
       <c r="G157" t="n">
-        <v>101.92163613</v>
+        <v>102.28927752</v>
       </c>
       <c r="H157" t="n">
-        <v>102.52331174</v>
+        <v>102.03157785</v>
       </c>
       <c r="I157" t="n">
-        <v>104.11978113</v>
+        <v>102.07014856</v>
       </c>
       <c r="J157" t="n">
-        <v>101.41626005</v>
+        <v>104.2628021</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.83240537</v>
+        <v>100.17769884</v>
       </c>
       <c r="C158" t="n">
-        <v>103.3256054</v>
+        <v>102.18344259</v>
       </c>
       <c r="D158" t="n">
-        <v>101.62762918</v>
+        <v>101.69545437</v>
       </c>
       <c r="E158" t="n">
-        <v>102.46807692</v>
+        <v>101.18635554</v>
       </c>
       <c r="F158" t="n">
-        <v>101.39839535</v>
+        <v>101.1993138</v>
       </c>
       <c r="G158" t="n">
-        <v>102.35809242</v>
+        <v>102.18074814</v>
       </c>
       <c r="H158" t="n">
-        <v>100.01500742</v>
+        <v>101.9301671</v>
       </c>
       <c r="I158" t="n">
-        <v>102.43949628</v>
+        <v>102.48423997</v>
       </c>
       <c r="J158" t="n">
-        <v>106.67956924</v>
+        <v>103.35431989</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.84612576000001</v>
+        <v>100.7393156</v>
       </c>
       <c r="C159" t="n">
-        <v>103.09175075</v>
+        <v>103.29757924</v>
       </c>
       <c r="D159" t="n">
-        <v>101.68567853</v>
+        <v>102.08905772</v>
       </c>
       <c r="E159" t="n">
-        <v>102.51547807</v>
+        <v>101.59676374</v>
       </c>
       <c r="F159" t="n">
-        <v>101.2659985</v>
+        <v>101.16291584</v>
       </c>
       <c r="G159" t="n">
-        <v>102.38603287</v>
+        <v>102.24729735</v>
       </c>
       <c r="H159" t="n">
-        <v>100.03274085</v>
+        <v>101.69690639</v>
       </c>
       <c r="I159" t="n">
-        <v>102.29297828</v>
+        <v>102.58238395</v>
       </c>
       <c r="J159" t="n">
-        <v>105.96637664</v>
+        <v>106.22292537</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.19053353</v>
+        <v>100.2839427</v>
       </c>
       <c r="C160" t="n">
-        <v>102.50377614</v>
+        <v>102.19483376</v>
       </c>
       <c r="D160" t="n">
-        <v>101.62266262</v>
+        <v>101.95565809</v>
       </c>
       <c r="E160" t="n">
-        <v>102.53101092</v>
+        <v>101.65403364</v>
       </c>
       <c r="F160" t="n">
-        <v>101.36964086</v>
+        <v>101.23718048</v>
       </c>
       <c r="G160" t="n">
-        <v>102.46485809</v>
+        <v>102.16149671</v>
       </c>
       <c r="H160" t="n">
-        <v>99.68449649999999</v>
+        <v>101.50239852</v>
       </c>
       <c r="I160" t="n">
-        <v>102.34861459</v>
+        <v>102.67221443</v>
       </c>
       <c r="J160" t="n">
-        <v>104.02372796</v>
+        <v>103.15955422</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>100.17769884</v>
+        <v>99.44204592</v>
       </c>
       <c r="C161" t="n">
-        <v>102.18344259</v>
+        <v>102.43812928</v>
       </c>
       <c r="D161" t="n">
-        <v>101.69545437</v>
+        <v>101.9654358</v>
       </c>
       <c r="E161" t="n">
-        <v>101.18635554</v>
+        <v>101.68308179</v>
       </c>
       <c r="F161" t="n">
-        <v>101.1993138</v>
+        <v>101.31482632</v>
       </c>
       <c r="G161" t="n">
-        <v>102.18074814</v>
+        <v>102.07712591</v>
       </c>
       <c r="H161" t="n">
-        <v>101.9301671</v>
+        <v>101.33218129</v>
       </c>
       <c r="I161" t="n">
-        <v>102.48423997</v>
+        <v>102.81432703</v>
       </c>
       <c r="J161" t="n">
-        <v>103.35431989</v>
+        <v>104.17440606</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>100.7393156</v>
+        <v>99.33495508</v>
       </c>
       <c r="C162" t="n">
-        <v>103.29757924</v>
+        <v>102.24225736</v>
       </c>
       <c r="D162" t="n">
-        <v>102.08905772</v>
+        <v>102.06096488</v>
       </c>
       <c r="E162" t="n">
-        <v>101.59676374</v>
+        <v>101.67948736</v>
       </c>
       <c r="F162" t="n">
-        <v>101.16291584</v>
+        <v>101.28510956</v>
       </c>
       <c r="G162" t="n">
-        <v>102.24729735</v>
+        <v>102.28440758</v>
       </c>
       <c r="H162" t="n">
-        <v>101.69690639</v>
+        <v>101.02649889</v>
       </c>
       <c r="I162" t="n">
-        <v>102.58238395</v>
+        <v>102.69647716</v>
       </c>
       <c r="J162" t="n">
-        <v>106.22292537</v>
+        <v>103.55745808</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>100.2839427</v>
+        <v>99.84138545</v>
       </c>
       <c r="C163" t="n">
-        <v>102.19483376</v>
+        <v>102.81540654</v>
       </c>
       <c r="D163" t="n">
-        <v>101.95565809</v>
+        <v>102.00087285</v>
       </c>
       <c r="E163" t="n">
-        <v>101.65403364</v>
+        <v>101.62844061</v>
       </c>
       <c r="F163" t="n">
-        <v>101.23718048</v>
+        <v>101.30028522</v>
       </c>
       <c r="G163" t="n">
-        <v>102.16149671</v>
+        <v>102.53373555</v>
       </c>
       <c r="H163" t="n">
-        <v>101.50239852</v>
+        <v>100.78480761</v>
       </c>
       <c r="I163" t="n">
-        <v>102.67221443</v>
+        <v>102.57722988</v>
       </c>
       <c r="J163" t="n">
-        <v>103.15955422</v>
+        <v>105.09371327</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>99.44204592</v>
+        <v>100.44460855</v>
       </c>
       <c r="C164" t="n">
-        <v>102.43812928</v>
+        <v>102.91634068</v>
       </c>
       <c r="D164" t="n">
-        <v>101.9654358</v>
+        <v>101.83838858</v>
       </c>
       <c r="E164" t="n">
-        <v>101.68308179</v>
+        <v>101.63885926</v>
       </c>
       <c r="F164" t="n">
-        <v>101.31482632</v>
+        <v>101.31128596</v>
       </c>
       <c r="G164" t="n">
-        <v>102.07712591</v>
+        <v>102.4912316</v>
       </c>
       <c r="H164" t="n">
-        <v>101.33218129</v>
+        <v>100.63311527</v>
       </c>
       <c r="I164" t="n">
-        <v>102.81432703</v>
+        <v>102.47519073</v>
       </c>
       <c r="J164" t="n">
-        <v>104.17440606</v>
+        <v>105.32337379</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>99.33495508</v>
+        <v>100.43965294</v>
       </c>
       <c r="C165" t="n">
-        <v>102.24225736</v>
+        <v>102.87844396</v>
       </c>
       <c r="D165" t="n">
-        <v>102.06096488</v>
+        <v>101.86581812</v>
       </c>
       <c r="E165" t="n">
-        <v>101.67948736</v>
+        <v>101.61736692</v>
       </c>
       <c r="F165" t="n">
-        <v>101.28510956</v>
+        <v>101.32676851</v>
       </c>
       <c r="G165" t="n">
-        <v>102.28440758</v>
+        <v>102.38420401</v>
       </c>
       <c r="H165" t="n">
-        <v>101.02649889</v>
+        <v>100.31724673</v>
       </c>
       <c r="I165" t="n">
-        <v>102.69647716</v>
+        <v>102.46371753</v>
       </c>
       <c r="J165" t="n">
-        <v>103.55745808</v>
+        <v>105.27333158</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.84138545</v>
+        <v>100.20587132</v>
       </c>
       <c r="C166" t="n">
-        <v>102.81540654</v>
+        <v>103.2502875</v>
       </c>
       <c r="D166" t="n">
-        <v>102.00087285</v>
+        <v>101.74853577</v>
       </c>
       <c r="E166" t="n">
-        <v>101.62844061</v>
+        <v>101.8469042</v>
       </c>
       <c r="F166" t="n">
-        <v>101.30028522</v>
+        <v>101.29449662</v>
       </c>
       <c r="G166" t="n">
-        <v>102.53373555</v>
+        <v>102.29563538</v>
       </c>
       <c r="H166" t="n">
-        <v>100.78480761</v>
+        <v>100.14661855</v>
       </c>
       <c r="I166" t="n">
-        <v>102.57722988</v>
+        <v>102.66001924</v>
       </c>
       <c r="J166" t="n">
-        <v>105.09371327</v>
+        <v>106.45126818</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>100.44460855</v>
+        <v>99.83240537</v>
       </c>
       <c r="C167" t="n">
-        <v>102.91634068</v>
+        <v>103.3256054</v>
       </c>
       <c r="D167" t="n">
-        <v>101.83838858</v>
+        <v>101.62762918</v>
       </c>
       <c r="E167" t="n">
-        <v>101.63885926</v>
+        <v>102.46807692</v>
       </c>
       <c r="F167" t="n">
-        <v>101.31128596</v>
+        <v>101.39839535</v>
       </c>
       <c r="G167" t="n">
-        <v>102.4912316</v>
+        <v>102.35809242</v>
       </c>
       <c r="H167" t="n">
-        <v>100.63311527</v>
+        <v>100.01500742</v>
       </c>
       <c r="I167" t="n">
-        <v>102.47519073</v>
+        <v>102.43949628</v>
       </c>
       <c r="J167" t="n">
-        <v>105.32337379</v>
+        <v>106.67956924</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>100.43965294</v>
+        <v>99.84612576000001</v>
       </c>
       <c r="C168" t="n">
-        <v>102.87844396</v>
+        <v>103.09175075</v>
       </c>
       <c r="D168" t="n">
-        <v>101.86581812</v>
+        <v>101.68567853</v>
       </c>
       <c r="E168" t="n">
-        <v>101.61736692</v>
+        <v>102.51547807</v>
       </c>
       <c r="F168" t="n">
-        <v>101.32676851</v>
+        <v>101.2659985</v>
       </c>
       <c r="G168" t="n">
-        <v>102.38420401</v>
+        <v>102.38603287</v>
       </c>
       <c r="H168" t="n">
-        <v>100.31724673</v>
+        <v>100.03274085</v>
       </c>
       <c r="I168" t="n">
-        <v>102.46371753</v>
+        <v>102.29297828</v>
       </c>
       <c r="J168" t="n">
-        <v>105.27333158</v>
+        <v>105.96637664</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>100.20587132</v>
+        <v>100.19053353</v>
       </c>
       <c r="C169" t="n">
-        <v>103.2502875</v>
+        <v>102.50377614</v>
       </c>
       <c r="D169" t="n">
-        <v>101.74853577</v>
+        <v>101.62266262</v>
       </c>
       <c r="E169" t="n">
-        <v>101.8469042</v>
+        <v>102.53101092</v>
       </c>
       <c r="F169" t="n">
-        <v>101.29449662</v>
+        <v>101.36964086</v>
       </c>
       <c r="G169" t="n">
-        <v>102.29563538</v>
+        <v>102.46485809</v>
       </c>
       <c r="H169" t="n">
-        <v>100.14661855</v>
+        <v>99.68449649999999</v>
       </c>
       <c r="I169" t="n">
-        <v>102.66001924</v>
+        <v>102.34861459</v>
       </c>
       <c r="J169" t="n">
-        <v>106.45126818</v>
+        <v>104.02372796</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>99.65461904</v>
+        <v>100.40453736</v>
       </c>
       <c r="C170" t="n">
-        <v>101.42668417</v>
+        <v>102.22340379</v>
       </c>
       <c r="D170" t="n">
-        <v>101.3754202</v>
+        <v>101.91446856</v>
       </c>
       <c r="E170" t="n">
-        <v>100.94145994</v>
+        <v>102.6895219</v>
       </c>
       <c r="F170" t="n">
-        <v>101.10486652</v>
+        <v>101.41209834</v>
       </c>
       <c r="G170" t="n">
-        <v>101.42869471</v>
+        <v>102.52513897</v>
       </c>
       <c r="H170" t="n">
-        <v>99.79569444000001</v>
+        <v>99.43138156000001</v>
       </c>
       <c r="I170" t="n">
-        <v>102.47309259</v>
+        <v>102.11032441</v>
       </c>
       <c r="J170" t="n">
-        <v>102.1080955</v>
+        <v>103.01415931</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99.21265966999999</v>
+        <v>99.88628983</v>
       </c>
       <c r="C171" t="n">
-        <v>101.27109268</v>
+        <v>101.65605322</v>
       </c>
       <c r="D171" t="n">
-        <v>101.34955575</v>
+        <v>101.53642154</v>
       </c>
       <c r="E171" t="n">
-        <v>100.87568144</v>
+        <v>102.31050439</v>
       </c>
       <c r="F171" t="n">
-        <v>101.21060836</v>
+        <v>101.34078737</v>
       </c>
       <c r="G171" t="n">
-        <v>101.06847503</v>
+        <v>102.45942615</v>
       </c>
       <c r="H171" t="n">
-        <v>99.6408204</v>
+        <v>99.35143882</v>
       </c>
       <c r="I171" t="n">
-        <v>102.49409797</v>
+        <v>102.10960277</v>
       </c>
       <c r="J171" t="n">
-        <v>102.00768866</v>
+        <v>101.7839362</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>98.65800462999999</v>
+        <v>99.87552568</v>
       </c>
       <c r="C172" t="n">
-        <v>101.31928959</v>
+        <v>102.08346682</v>
       </c>
       <c r="D172" t="n">
-        <v>101.61847565</v>
+        <v>101.55573994</v>
       </c>
       <c r="E172" t="n">
-        <v>100.89946152</v>
+        <v>102.04870601</v>
       </c>
       <c r="F172" t="n">
-        <v>101.23521445</v>
+        <v>101.20353702</v>
       </c>
       <c r="G172" t="n">
-        <v>100.71363802</v>
+        <v>102.42633212</v>
       </c>
       <c r="H172" t="n">
-        <v>99.57942679</v>
+        <v>99.44078442999999</v>
       </c>
       <c r="I172" t="n">
-        <v>102.29927133</v>
+        <v>102.3862883</v>
       </c>
       <c r="J172" t="n">
-        <v>102.47639904</v>
+        <v>103.08417592</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.40453736</v>
+        <v>100.2673046</v>
       </c>
       <c r="C173" t="n">
-        <v>102.22340379</v>
+        <v>101.63062857</v>
       </c>
       <c r="D173" t="n">
-        <v>101.91446856</v>
+        <v>101.50414413</v>
       </c>
       <c r="E173" t="n">
-        <v>102.6895219</v>
+        <v>101.89527836</v>
       </c>
       <c r="F173" t="n">
-        <v>101.41209834</v>
+        <v>101.21456125</v>
       </c>
       <c r="G173" t="n">
-        <v>102.52513897</v>
+        <v>102.40029944</v>
       </c>
       <c r="H173" t="n">
-        <v>99.43138156000001</v>
+        <v>99.47972819</v>
       </c>
       <c r="I173" t="n">
-        <v>102.11032441</v>
+        <v>102.38659981</v>
       </c>
       <c r="J173" t="n">
-        <v>103.01415931</v>
+        <v>101.70100579</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.88628983</v>
+        <v>100.76168861</v>
       </c>
       <c r="C174" t="n">
-        <v>101.65605322</v>
+        <v>102.32896825</v>
       </c>
       <c r="D174" t="n">
-        <v>101.53642154</v>
+        <v>101.40883336</v>
       </c>
       <c r="E174" t="n">
-        <v>102.31050439</v>
+        <v>101.8484859</v>
       </c>
       <c r="F174" t="n">
-        <v>101.34078737</v>
+        <v>101.22803648</v>
       </c>
       <c r="G174" t="n">
-        <v>102.45942615</v>
+        <v>102.32391152</v>
       </c>
       <c r="H174" t="n">
-        <v>99.35143882</v>
+        <v>99.48542019999999</v>
       </c>
       <c r="I174" t="n">
-        <v>102.10960277</v>
+        <v>102.53951</v>
       </c>
       <c r="J174" t="n">
-        <v>101.7839362</v>
+        <v>103.67076801</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.87552568</v>
+        <v>100.84946975</v>
       </c>
       <c r="C175" t="n">
-        <v>102.08346682</v>
+        <v>102.14450398</v>
       </c>
       <c r="D175" t="n">
-        <v>101.55573994</v>
+        <v>101.28834251</v>
       </c>
       <c r="E175" t="n">
-        <v>102.04870601</v>
+        <v>101.86658458</v>
       </c>
       <c r="F175" t="n">
-        <v>101.20353702</v>
+        <v>101.11719885</v>
       </c>
       <c r="G175" t="n">
-        <v>102.42633212</v>
+        <v>102.12492435</v>
       </c>
       <c r="H175" t="n">
-        <v>99.44078442999999</v>
+        <v>99.52498276999999</v>
       </c>
       <c r="I175" t="n">
-        <v>102.3862883</v>
+        <v>102.41006634</v>
       </c>
       <c r="J175" t="n">
-        <v>103.08417592</v>
+        <v>103.27947653</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>100.2673046</v>
+        <v>100.80349354</v>
       </c>
       <c r="C176" t="n">
-        <v>101.63062857</v>
+        <v>102.14082116</v>
       </c>
       <c r="D176" t="n">
-        <v>101.50414413</v>
+        <v>101.34977097</v>
       </c>
       <c r="E176" t="n">
-        <v>101.89527836</v>
+        <v>101.73614353</v>
       </c>
       <c r="F176" t="n">
-        <v>101.21456125</v>
+        <v>101.08111482</v>
       </c>
       <c r="G176" t="n">
-        <v>102.40029944</v>
+        <v>102.03976795</v>
       </c>
       <c r="H176" t="n">
-        <v>99.47972819</v>
+        <v>99.54875315</v>
       </c>
       <c r="I176" t="n">
-        <v>102.38659981</v>
+        <v>102.45303277</v>
       </c>
       <c r="J176" t="n">
-        <v>101.70100579</v>
+        <v>103.34926587</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>100.76168861</v>
+        <v>100.3025776</v>
       </c>
       <c r="C177" t="n">
-        <v>102.32896825</v>
+        <v>101.85752249</v>
       </c>
       <c r="D177" t="n">
-        <v>101.40883336</v>
+        <v>101.49555928</v>
       </c>
       <c r="E177" t="n">
-        <v>101.8484859</v>
+        <v>101.74515672</v>
       </c>
       <c r="F177" t="n">
-        <v>101.22803648</v>
+        <v>101.0330075</v>
       </c>
       <c r="G177" t="n">
-        <v>102.32391152</v>
+        <v>101.84846335</v>
       </c>
       <c r="H177" t="n">
-        <v>99.48542019999999</v>
+        <v>99.63235</v>
       </c>
       <c r="I177" t="n">
-        <v>102.53951</v>
+        <v>102.38123705</v>
       </c>
       <c r="J177" t="n">
-        <v>103.67076801</v>
+        <v>102.72647218</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>100.84946975</v>
+        <v>99.73914945</v>
       </c>
       <c r="C178" t="n">
-        <v>102.14450398</v>
+        <v>101.42408768</v>
       </c>
       <c r="D178" t="n">
-        <v>101.28834251</v>
+        <v>101.43010351</v>
       </c>
       <c r="E178" t="n">
-        <v>101.86658458</v>
+        <v>101.45382376</v>
       </c>
       <c r="F178" t="n">
-        <v>101.11719885</v>
+        <v>101.11144798</v>
       </c>
       <c r="G178" t="n">
-        <v>102.12492435</v>
+        <v>101.6024734</v>
       </c>
       <c r="H178" t="n">
-        <v>99.52498276999999</v>
+        <v>99.68285775</v>
       </c>
       <c r="I178" t="n">
-        <v>102.41006634</v>
+        <v>102.17498382</v>
       </c>
       <c r="J178" t="n">
-        <v>103.27947653</v>
+        <v>101.88702267</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>100.80349354</v>
+        <v>99.65461904</v>
       </c>
       <c r="C179" t="n">
-        <v>102.14082116</v>
+        <v>101.42668417</v>
       </c>
       <c r="D179" t="n">
-        <v>101.34977097</v>
+        <v>101.3754202</v>
       </c>
       <c r="E179" t="n">
-        <v>101.73614353</v>
+        <v>100.94145994</v>
       </c>
       <c r="F179" t="n">
-        <v>101.08111482</v>
+        <v>101.10486652</v>
       </c>
       <c r="G179" t="n">
-        <v>102.03976795</v>
+        <v>101.42869471</v>
       </c>
       <c r="H179" t="n">
-        <v>99.54875315</v>
+        <v>99.79569444000001</v>
       </c>
       <c r="I179" t="n">
-        <v>102.45303277</v>
+        <v>102.47309259</v>
       </c>
       <c r="J179" t="n">
-        <v>103.34926587</v>
+        <v>102.1080955</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100.3025776</v>
+        <v>99.21265966999999</v>
       </c>
       <c r="C180" t="n">
-        <v>101.85752249</v>
+        <v>101.27109268</v>
       </c>
       <c r="D180" t="n">
-        <v>101.49555928</v>
+        <v>101.34955575</v>
       </c>
       <c r="E180" t="n">
-        <v>101.74515672</v>
+        <v>100.87568144</v>
       </c>
       <c r="F180" t="n">
-        <v>101.0330075</v>
+        <v>101.21060836</v>
       </c>
       <c r="G180" t="n">
-        <v>101.84846335</v>
+        <v>101.06847503</v>
       </c>
       <c r="H180" t="n">
-        <v>99.63235</v>
+        <v>99.6408204</v>
       </c>
       <c r="I180" t="n">
-        <v>102.38123705</v>
+        <v>102.49409797</v>
       </c>
       <c r="J180" t="n">
-        <v>102.72647218</v>
+        <v>102.00768866</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>99.73914945</v>
+        <v>98.65800462999999</v>
       </c>
       <c r="C181" t="n">
-        <v>101.42408768</v>
+        <v>101.31928959</v>
       </c>
       <c r="D181" t="n">
-        <v>101.43010351</v>
+        <v>101.61847565</v>
       </c>
       <c r="E181" t="n">
-        <v>101.45382376</v>
+        <v>100.89946152</v>
       </c>
       <c r="F181" t="n">
-        <v>101.11144798</v>
+        <v>101.23521445</v>
       </c>
       <c r="G181" t="n">
-        <v>101.6024734</v>
+        <v>100.71363802</v>
       </c>
       <c r="H181" t="n">
-        <v>99.68285775</v>
+        <v>99.57942679</v>
       </c>
       <c r="I181" t="n">
-        <v>102.17498382</v>
+        <v>102.29927133</v>
       </c>
       <c r="J181" t="n">
-        <v>101.88702267</v>
+        <v>102.47639904</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>97.95279275999999</v>
+        <v>97.69007071</v>
       </c>
       <c r="C182" t="n">
-        <v>101.16946408</v>
+        <v>100.64689323</v>
       </c>
       <c r="D182" t="n">
-        <v>102.59021123</v>
+        <v>101.76288738</v>
       </c>
       <c r="E182" t="n">
-        <v>101.42485419</v>
+        <v>100.75226844</v>
       </c>
       <c r="F182" t="n">
-        <v>100.74639464</v>
+        <v>101.15918852</v>
       </c>
       <c r="G182" t="n">
-        <v>99.37156478999999</v>
+        <v>100.46746225</v>
       </c>
       <c r="H182" t="n">
-        <v>103.96984763</v>
+        <v>99.69705906999999</v>
       </c>
       <c r="I182" t="n">
-        <v>102.11645838</v>
+        <v>102.43947167</v>
       </c>
       <c r="J182" t="n">
-        <v>102.16587202</v>
+        <v>100.8951207</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>98.36953547</v>
+        <v>97.94189249999999</v>
       </c>
       <c r="C183" t="n">
-        <v>101.30950548</v>
+        <v>101.21854744</v>
       </c>
       <c r="D183" t="n">
-        <v>102.90122456</v>
+        <v>102.27999645</v>
       </c>
       <c r="E183" t="n">
-        <v>101.57898793</v>
+        <v>101.3189326</v>
       </c>
       <c r="F183" t="n">
-        <v>100.5930915</v>
+        <v>101.36167063</v>
       </c>
       <c r="G183" t="n">
-        <v>99.43592657000001</v>
+        <v>100.27629003</v>
       </c>
       <c r="H183" t="n">
-        <v>104.11396073</v>
+        <v>99.5879161</v>
       </c>
       <c r="I183" t="n">
-        <v>101.94977197</v>
+        <v>102.43603119</v>
       </c>
       <c r="J183" t="n">
-        <v>102.32971347</v>
+        <v>102.24949424</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>98.47353486</v>
+        <v>98.28373186</v>
       </c>
       <c r="C184" t="n">
-        <v>101.47149507</v>
+        <v>101.23761178</v>
       </c>
       <c r="D184" t="n">
-        <v>102.86758882</v>
+        <v>101.96063035</v>
       </c>
       <c r="E184" t="n">
-        <v>101.6226609</v>
+        <v>101.24706966</v>
       </c>
       <c r="F184" t="n">
-        <v>100.46407911</v>
+        <v>101.19844507</v>
       </c>
       <c r="G184" t="n">
-        <v>99.50344287</v>
+        <v>99.99347007</v>
       </c>
       <c r="H184" t="n">
-        <v>104.16638998</v>
+        <v>99.53101153</v>
       </c>
       <c r="I184" t="n">
-        <v>101.96993168</v>
+        <v>102.35081604</v>
       </c>
       <c r="J184" t="n">
-        <v>102.72290235</v>
+        <v>102.53738433</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97.69007071</v>
+        <v>98.19091088</v>
       </c>
       <c r="C185" t="n">
-        <v>100.64689323</v>
+        <v>101.34128374</v>
       </c>
       <c r="D185" t="n">
-        <v>101.76288738</v>
+        <v>102.12082729</v>
       </c>
       <c r="E185" t="n">
-        <v>100.75226844</v>
+        <v>101.36958782</v>
       </c>
       <c r="F185" t="n">
-        <v>101.15918852</v>
+        <v>101.07226086</v>
       </c>
       <c r="G185" t="n">
-        <v>100.46746225</v>
+        <v>99.76900434</v>
       </c>
       <c r="H185" t="n">
-        <v>99.69705906999999</v>
+        <v>99.49321473000001</v>
       </c>
       <c r="I185" t="n">
-        <v>102.43947167</v>
+        <v>102.26329414</v>
       </c>
       <c r="J185" t="n">
-        <v>100.8951207</v>
+        <v>102.97524159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>97.94189249999999</v>
+        <v>98.50904259000001</v>
       </c>
       <c r="C186" t="n">
-        <v>101.21854744</v>
+        <v>101.03993984</v>
       </c>
       <c r="D186" t="n">
-        <v>102.27999645</v>
+        <v>102.1515819</v>
       </c>
       <c r="E186" t="n">
-        <v>101.3189326</v>
+        <v>101.45469106</v>
       </c>
       <c r="F186" t="n">
-        <v>101.36167063</v>
+        <v>101.0188431</v>
       </c>
       <c r="G186" t="n">
-        <v>100.27629003</v>
+        <v>99.70036249</v>
       </c>
       <c r="H186" t="n">
-        <v>99.5879161</v>
+        <v>101.78006085</v>
       </c>
       <c r="I186" t="n">
-        <v>102.43603119</v>
+        <v>102.33890459</v>
       </c>
       <c r="J186" t="n">
-        <v>102.24949424</v>
+        <v>101.72693181</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>98.28373186</v>
+        <v>98.29000397</v>
       </c>
       <c r="C187" t="n">
-        <v>101.23761178</v>
+        <v>101.21719438</v>
       </c>
       <c r="D187" t="n">
-        <v>101.96063035</v>
+        <v>102.38996207</v>
       </c>
       <c r="E187" t="n">
-        <v>101.24706966</v>
+        <v>101.4816912</v>
       </c>
       <c r="F187" t="n">
-        <v>101.19844507</v>
+        <v>100.97579764</v>
       </c>
       <c r="G187" t="n">
-        <v>99.99347007</v>
+        <v>99.70288221</v>
       </c>
       <c r="H187" t="n">
-        <v>99.53101153</v>
+        <v>103.8764638</v>
       </c>
       <c r="I187" t="n">
-        <v>102.35081604</v>
+        <v>102.55734734</v>
       </c>
       <c r="J187" t="n">
-        <v>102.53738433</v>
+        <v>101.95592693</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>98.19091088</v>
+        <v>97.97950369</v>
       </c>
       <c r="C188" t="n">
-        <v>101.34128374</v>
+        <v>101.47685248</v>
       </c>
       <c r="D188" t="n">
-        <v>102.12082729</v>
+        <v>102.3788747</v>
       </c>
       <c r="E188" t="n">
-        <v>101.36958782</v>
+        <v>101.546397</v>
       </c>
       <c r="F188" t="n">
-        <v>101.07226086</v>
+        <v>100.88539112</v>
       </c>
       <c r="G188" t="n">
-        <v>99.76900434</v>
+        <v>99.53917745</v>
       </c>
       <c r="H188" t="n">
-        <v>99.49321473000001</v>
+        <v>103.95324968</v>
       </c>
       <c r="I188" t="n">
-        <v>102.26329414</v>
+        <v>102.55428234</v>
       </c>
       <c r="J188" t="n">
-        <v>102.97524159</v>
+        <v>102.89403329</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98.50904259000001</v>
+        <v>97.68567775</v>
       </c>
       <c r="C189" t="n">
-        <v>101.03993984</v>
+        <v>101.7708111</v>
       </c>
       <c r="D189" t="n">
-        <v>102.1515819</v>
+        <v>102.28663064</v>
       </c>
       <c r="E189" t="n">
-        <v>101.45469106</v>
+        <v>101.57483287</v>
       </c>
       <c r="F189" t="n">
-        <v>101.0188431</v>
+        <v>100.88776695</v>
       </c>
       <c r="G189" t="n">
-        <v>99.70036249</v>
+        <v>99.47648099</v>
       </c>
       <c r="H189" t="n">
-        <v>101.78006085</v>
+        <v>103.99703754</v>
       </c>
       <c r="I189" t="n">
-        <v>102.33890459</v>
+        <v>102.51970636</v>
       </c>
       <c r="J189" t="n">
-        <v>101.72693181</v>
+        <v>103.87357432</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98.29000397</v>
+        <v>97.59098426</v>
       </c>
       <c r="C190" t="n">
-        <v>101.21719438</v>
+        <v>101.45358637</v>
       </c>
       <c r="D190" t="n">
-        <v>102.38996207</v>
+        <v>102.48365289</v>
       </c>
       <c r="E190" t="n">
-        <v>101.4816912</v>
+        <v>101.63754398</v>
       </c>
       <c r="F190" t="n">
-        <v>100.97579764</v>
+        <v>100.82074572</v>
       </c>
       <c r="G190" t="n">
-        <v>99.70288221</v>
+        <v>99.49269166000001</v>
       </c>
       <c r="H190" t="n">
-        <v>103.8764638</v>
+        <v>104.02410964</v>
       </c>
       <c r="I190" t="n">
-        <v>102.55734734</v>
+        <v>102.47065055</v>
       </c>
       <c r="J190" t="n">
-        <v>101.95592693</v>
+        <v>102.89622059</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>97.97950369</v>
+        <v>97.95279275999999</v>
       </c>
       <c r="C191" t="n">
-        <v>101.47685248</v>
+        <v>101.16946408</v>
       </c>
       <c r="D191" t="n">
-        <v>102.3788747</v>
+        <v>102.59021123</v>
       </c>
       <c r="E191" t="n">
-        <v>101.546397</v>
+        <v>101.42485419</v>
       </c>
       <c r="F191" t="n">
-        <v>100.88539112</v>
+        <v>100.74639464</v>
       </c>
       <c r="G191" t="n">
-        <v>99.53917745</v>
+        <v>99.37156478999999</v>
       </c>
       <c r="H191" t="n">
-        <v>103.95324968</v>
+        <v>103.96984763</v>
       </c>
       <c r="I191" t="n">
-        <v>102.55428234</v>
+        <v>102.11645838</v>
       </c>
       <c r="J191" t="n">
-        <v>102.89403329</v>
+        <v>102.16587202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>97.68567775</v>
+        <v>98.36953547</v>
       </c>
       <c r="C192" t="n">
-        <v>101.7708111</v>
+        <v>101.30950548</v>
       </c>
       <c r="D192" t="n">
-        <v>102.28663064</v>
+        <v>102.90122456</v>
       </c>
       <c r="E192" t="n">
-        <v>101.57483287</v>
+        <v>101.57898793</v>
       </c>
       <c r="F192" t="n">
-        <v>100.88776695</v>
+        <v>100.5930915</v>
       </c>
       <c r="G192" t="n">
-        <v>99.47648099</v>
+        <v>99.43592657000001</v>
       </c>
       <c r="H192" t="n">
-        <v>103.99703754</v>
+        <v>104.11396073</v>
       </c>
       <c r="I192" t="n">
-        <v>102.51970636</v>
+        <v>101.94977197</v>
       </c>
       <c r="J192" t="n">
-        <v>103.87357432</v>
+        <v>102.32971347</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>97.59098426</v>
+        <v>98.47353486</v>
       </c>
       <c r="C193" t="n">
-        <v>101.45358637</v>
+        <v>101.47149507</v>
       </c>
       <c r="D193" t="n">
-        <v>102.48365289</v>
+        <v>102.86758882</v>
       </c>
       <c r="E193" t="n">
-        <v>101.63754398</v>
+        <v>101.6226609</v>
       </c>
       <c r="F193" t="n">
-        <v>100.82074572</v>
+        <v>100.46407911</v>
       </c>
       <c r="G193" t="n">
-        <v>99.49269166000001</v>
+        <v>99.50344287</v>
       </c>
       <c r="H193" t="n">
-        <v>104.02410964</v>
+        <v>104.16638998</v>
       </c>
       <c r="I193" t="n">
-        <v>102.47065055</v>
+        <v>101.96993168</v>
       </c>
       <c r="J193" t="n">
-        <v>102.89622059</v>
+        <v>102.72290235</v>
       </c>
     </row>
   </sheetData>
